--- a/artfynd/Orratjärnskullen artfynd.xlsx
+++ b/artfynd/Orratjärnskullen artfynd.xlsx
@@ -1524,32 +1524,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16944665</v>
+        <v>16944949</v>
       </c>
       <c r="B10" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>696959</v>
+        <v>697230</v>
       </c>
       <c r="R10" t="n">
-        <v>7100686</v>
+        <v>7100208</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1636,32 +1636,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16944949</v>
+        <v>16944665</v>
       </c>
       <c r="B11" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>697230</v>
+        <v>696959</v>
       </c>
       <c r="R11" t="n">
-        <v>7100208</v>
+        <v>7100686</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>125174018</v>
+        <v>125173960</v>
       </c>
       <c r="B12" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1759,21 +1759,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>696798</v>
+        <v>697233</v>
       </c>
       <c r="R12" t="n">
-        <v>7100498</v>
+        <v>7100331</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1829,21 +1829,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1860,32 +1845,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>125173951</v>
+        <v>125174087</v>
       </c>
       <c r="B13" t="n">
-        <v>91210</v>
+        <v>91259</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1895,10 +1880,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>697318</v>
+        <v>697372</v>
       </c>
       <c r="R13" t="n">
-        <v>7099916</v>
+        <v>7100091</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1957,10 +1942,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>125174110</v>
+        <v>125173995</v>
       </c>
       <c r="B14" t="n">
-        <v>78980</v>
+        <v>91195</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1968,21 +1953,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>112</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1992,10 +1977,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>697340</v>
+        <v>697391</v>
       </c>
       <c r="R14" t="n">
-        <v>7100068</v>
+        <v>7100055</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2054,7 +2039,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>125174030</v>
+        <v>125174018</v>
       </c>
       <c r="B15" t="n">
         <v>80083</v>
@@ -2089,10 +2074,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>697373</v>
+        <v>696798</v>
       </c>
       <c r="R15" t="n">
-        <v>7099946</v>
+        <v>7100498</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2138,17 +2123,17 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2166,32 +2151,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>125173960</v>
+        <v>125173951</v>
       </c>
       <c r="B16" t="n">
-        <v>91245</v>
+        <v>91210</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2201,10 +2186,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>697233</v>
+        <v>697318</v>
       </c>
       <c r="R16" t="n">
-        <v>7100331</v>
+        <v>7099916</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2263,10 +2248,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>125174087</v>
+        <v>125174110</v>
       </c>
       <c r="B17" t="n">
-        <v>91259</v>
+        <v>78980</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2274,21 +2259,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2298,10 +2283,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>697372</v>
+        <v>697340</v>
       </c>
       <c r="R17" t="n">
-        <v>7100091</v>
+        <v>7100068</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2360,10 +2345,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>125173995</v>
+        <v>125174030</v>
       </c>
       <c r="B18" t="n">
-        <v>91195</v>
+        <v>80083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2371,21 +2356,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>112</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2395,10 +2380,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>697391</v>
+        <v>697373</v>
       </c>
       <c r="R18" t="n">
-        <v>7100055</v>
+        <v>7099946</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2441,6 +2426,21 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2906,32 +2906,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>125173984</v>
+        <v>125174051</v>
       </c>
       <c r="B23" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>696809</v>
+        <v>696757</v>
       </c>
       <c r="R23" t="n">
-        <v>7100467</v>
+        <v>7100544</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>125173961</v>
+        <v>125174042</v>
       </c>
       <c r="B24" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3014,21 +3014,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3038,10 +3038,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>697376</v>
+        <v>696806</v>
       </c>
       <c r="R24" t="n">
-        <v>7100080</v>
+        <v>7100461</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>125173956</v>
+        <v>125174109</v>
       </c>
       <c r="B25" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3111,21 +3111,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>697350</v>
+        <v>697307</v>
       </c>
       <c r="R25" t="n">
-        <v>7100158</v>
+        <v>7099967</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125174051</v>
+        <v>125174034</v>
       </c>
       <c r="B26" t="n">
         <v>80083</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>696757</v>
+        <v>696969</v>
       </c>
       <c r="R26" t="n">
-        <v>7100544</v>
+        <v>7100455</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3294,32 +3294,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>125174042</v>
+        <v>125173984</v>
       </c>
       <c r="B27" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>696806</v>
+        <v>696809</v>
       </c>
       <c r="R27" t="n">
-        <v>7100461</v>
+        <v>7100467</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>125174109</v>
+        <v>125173961</v>
       </c>
       <c r="B28" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3402,21 +3402,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>697307</v>
+        <v>697376</v>
       </c>
       <c r="R28" t="n">
-        <v>7099967</v>
+        <v>7100080</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>125174034</v>
+        <v>125173956</v>
       </c>
       <c r="B29" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3499,21 +3499,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>696969</v>
+        <v>697350</v>
       </c>
       <c r="R29" t="n">
-        <v>7100455</v>
+        <v>7100158</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -6009,32 +6009,32 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>125174029</v>
+        <v>125173989</v>
       </c>
       <c r="B53" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>697365</v>
+        <v>697344</v>
       </c>
       <c r="R53" t="n">
-        <v>7099907</v>
+        <v>7100036</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6090,21 +6090,6 @@
       </c>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
@@ -6121,10 +6106,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>125173987</v>
+        <v>125174116</v>
       </c>
       <c r="B54" t="n">
-        <v>80112</v>
+        <v>80118</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6132,21 +6117,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6156,10 +6141,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>696928</v>
+        <v>697400</v>
       </c>
       <c r="R54" t="n">
-        <v>7100550</v>
+        <v>7100102</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6218,32 +6203,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>125174046</v>
+        <v>125173978</v>
       </c>
       <c r="B55" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6253,10 +6238,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>696811</v>
+        <v>697341</v>
       </c>
       <c r="R55" t="n">
-        <v>7100494</v>
+        <v>7100020</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6299,6 +6284,21 @@
       </c>
       <c r="AG55" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -6315,7 +6315,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>125174033</v>
+        <v>125174029</v>
       </c>
       <c r="B56" t="n">
         <v>80083</v>
@@ -6350,10 +6350,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>697007</v>
+        <v>697365</v>
       </c>
       <c r="R56" t="n">
-        <v>7100392</v>
+        <v>7099907</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6396,6 +6396,21 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
@@ -6412,32 +6427,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>126313454</v>
+        <v>125173987</v>
       </c>
       <c r="B57" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6447,10 +6462,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>696851</v>
+        <v>696928</v>
       </c>
       <c r="R57" t="n">
-        <v>7100310</v>
+        <v>7100550</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6477,12 +6492,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6493,63 +6508,48 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>125173989</v>
+        <v>125174046</v>
       </c>
       <c r="B58" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6559,10 +6559,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>697344</v>
+        <v>696811</v>
       </c>
       <c r="R58" t="n">
-        <v>7100036</v>
+        <v>7100494</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -6621,32 +6621,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>125174116</v>
+        <v>125174033</v>
       </c>
       <c r="B59" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6656,10 +6656,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>697400</v>
+        <v>697007</v>
       </c>
       <c r="R59" t="n">
-        <v>7100102</v>
+        <v>7100392</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -6718,32 +6718,32 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>125173978</v>
+        <v>126313454</v>
       </c>
       <c r="B60" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>697341</v>
+        <v>696851</v>
       </c>
       <c r="R60" t="n">
-        <v>7100020</v>
+        <v>7100310</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -6783,12 +6783,12 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6802,28 +6802,28 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
@@ -8179,48 +8179,48 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>125173950</v>
+        <v>126380584</v>
       </c>
       <c r="B74" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Orratjärnkullen, Ång</t>
+          <t>Västerås, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>697356</v>
+        <v>697382</v>
       </c>
       <c r="R74" t="n">
-        <v>7100150</v>
+        <v>7099988</v>
       </c>
       <c r="S74" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8244,12 +8244,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8260,48 +8260,63 @@
       </c>
       <c r="AG74" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>125174057</v>
+        <v>125173950</v>
       </c>
       <c r="B75" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8311,10 +8326,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>697236</v>
+        <v>697356</v>
       </c>
       <c r="R75" t="n">
-        <v>7100408</v>
+        <v>7100150</v>
       </c>
       <c r="S75" t="n">
         <v>5</v>
@@ -8373,10 +8388,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>125174108</v>
+        <v>125174057</v>
       </c>
       <c r="B76" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8384,21 +8399,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8408,10 +8423,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>697225</v>
+        <v>697236</v>
       </c>
       <c r="R76" t="n">
-        <v>7100135</v>
+        <v>7100408</v>
       </c>
       <c r="S76" t="n">
         <v>5</v>
@@ -8470,10 +8485,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>125174023</v>
+        <v>125174108</v>
       </c>
       <c r="B77" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8481,21 +8496,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8505,10 +8520,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>696964</v>
+        <v>697225</v>
       </c>
       <c r="R77" t="n">
-        <v>7100364</v>
+        <v>7100135</v>
       </c>
       <c r="S77" t="n">
         <v>5</v>
@@ -8551,21 +8566,6 @@
       </c>
       <c r="AG77" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
@@ -8582,7 +8582,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>125174014</v>
+        <v>125174023</v>
       </c>
       <c r="B78" t="n">
         <v>80083</v>
@@ -8617,10 +8617,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>696820</v>
+        <v>696964</v>
       </c>
       <c r="R78" t="n">
-        <v>7100397</v>
+        <v>7100364</v>
       </c>
       <c r="S78" t="n">
         <v>5</v>
@@ -8666,17 +8666,17 @@
       </c>
       <c r="AJ78" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>125174040</v>
+        <v>125174014</v>
       </c>
       <c r="B79" t="n">
         <v>80083</v>
@@ -8729,10 +8729,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>696832</v>
+        <v>696820</v>
       </c>
       <c r="R79" t="n">
-        <v>7100425</v>
+        <v>7100397</v>
       </c>
       <c r="S79" t="n">
         <v>5</v>
@@ -8775,6 +8775,21 @@
       </c>
       <c r="AG79" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
@@ -8791,10 +8806,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>125174090</v>
+        <v>125174040</v>
       </c>
       <c r="B80" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8802,21 +8817,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -8826,10 +8841,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>696875</v>
+        <v>696832</v>
       </c>
       <c r="R80" t="n">
-        <v>7100596</v>
+        <v>7100425</v>
       </c>
       <c r="S80" t="n">
         <v>5</v>
@@ -8888,10 +8903,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>126380584</v>
+        <v>125174090</v>
       </c>
       <c r="B81" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8899,37 +8914,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Västerås, Ång</t>
+          <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>697382</v>
+        <v>696875</v>
       </c>
       <c r="R81" t="n">
-        <v>7099988</v>
+        <v>7100596</v>
       </c>
       <c r="S81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -8953,12 +8968,12 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -8969,31 +8984,16 @@
       </c>
       <c r="AG81" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
@@ -10152,32 +10152,32 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>125173977</v>
+        <v>125174045</v>
       </c>
       <c r="B93" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10187,10 +10187,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>697260</v>
+        <v>696765</v>
       </c>
       <c r="R93" t="n">
-        <v>7099966</v>
+        <v>7100501</v>
       </c>
       <c r="S93" t="n">
         <v>5</v>
@@ -10233,21 +10233,6 @@
       </c>
       <c r="AG93" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ93" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK93" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO93" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
@@ -10264,32 +10249,32 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>125174066</v>
+        <v>125174032</v>
       </c>
       <c r="B94" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10299,10 +10284,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>697416</v>
+        <v>697013</v>
       </c>
       <c r="R94" t="n">
-        <v>7100143</v>
+        <v>7100389</v>
       </c>
       <c r="S94" t="n">
         <v>5</v>
@@ -10345,21 +10330,6 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO94" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
@@ -10376,32 +10346,32 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>125174120</v>
+        <v>125174053</v>
       </c>
       <c r="B95" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10411,10 +10381,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>697167</v>
+        <v>696839</v>
       </c>
       <c r="R95" t="n">
-        <v>7100415</v>
+        <v>7100595</v>
       </c>
       <c r="S95" t="n">
         <v>5</v>
@@ -10457,21 +10427,6 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ95" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK95" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO95" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
@@ -10488,32 +10443,32 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>125174045</v>
+        <v>125173977</v>
       </c>
       <c r="B96" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10523,10 +10478,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>696765</v>
+        <v>697260</v>
       </c>
       <c r="R96" t="n">
-        <v>7100501</v>
+        <v>7099966</v>
       </c>
       <c r="S96" t="n">
         <v>5</v>
@@ -10569,6 +10524,21 @@
       </c>
       <c r="AG96" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
@@ -10585,32 +10555,32 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>125174032</v>
+        <v>125174066</v>
       </c>
       <c r="B97" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10620,10 +10590,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>697013</v>
+        <v>697416</v>
       </c>
       <c r="R97" t="n">
-        <v>7100389</v>
+        <v>7100143</v>
       </c>
       <c r="S97" t="n">
         <v>5</v>
@@ -10666,6 +10636,21 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
@@ -10682,32 +10667,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>125174053</v>
+        <v>125174120</v>
       </c>
       <c r="B98" t="n">
-        <v>80083</v>
+        <v>80118</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -10717,10 +10702,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>696839</v>
+        <v>697167</v>
       </c>
       <c r="R98" t="n">
-        <v>7100595</v>
+        <v>7100415</v>
       </c>
       <c r="S98" t="n">
         <v>5</v>
@@ -10763,6 +10748,21 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
@@ -15720,45 +15720,53 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>125174103</v>
+        <v>125173965</v>
       </c>
       <c r="B146" t="n">
-        <v>78980</v>
+        <v>56849</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>696805</v>
+        <v>697153</v>
       </c>
       <c r="R146" t="n">
-        <v>7100605</v>
+        <v>7100005</v>
       </c>
       <c r="S146" t="n">
         <v>5</v>
@@ -15817,10 +15825,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>125174028</v>
+        <v>125174103</v>
       </c>
       <c r="B147" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15828,21 +15836,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -15852,10 +15860,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>697338</v>
+        <v>696805</v>
       </c>
       <c r="R147" t="n">
-        <v>7100024</v>
+        <v>7100605</v>
       </c>
       <c r="S147" t="n">
         <v>5</v>
@@ -15898,21 +15906,6 @@
       </c>
       <c r="AG147" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ147" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK147" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO147" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT147" t="inlineStr"/>
       <c r="AW147" t="inlineStr">
@@ -15929,7 +15922,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>125174049</v>
+        <v>125174028</v>
       </c>
       <c r="B148" t="n">
         <v>80083</v>
@@ -15964,10 +15957,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>696783</v>
+        <v>697338</v>
       </c>
       <c r="R148" t="n">
-        <v>7100499</v>
+        <v>7100024</v>
       </c>
       <c r="S148" t="n">
         <v>5</v>
@@ -16010,6 +16003,21 @@
       </c>
       <c r="AG148" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ148" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK148" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO148" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT148" t="inlineStr"/>
       <c r="AW148" t="inlineStr">
@@ -16026,32 +16034,32 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>125173949</v>
+        <v>125174049</v>
       </c>
       <c r="B149" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -16061,10 +16069,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>697264</v>
+        <v>696783</v>
       </c>
       <c r="R149" t="n">
-        <v>7100107</v>
+        <v>7100499</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -16123,10 +16131,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>125174070</v>
+        <v>125173949</v>
       </c>
       <c r="B150" t="n">
-        <v>80119</v>
+        <v>91210</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -16134,21 +16142,21 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6464</v>
+        <v>5447</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -16158,10 +16166,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>696910</v>
+        <v>697264</v>
       </c>
       <c r="R150" t="n">
-        <v>7100484</v>
+        <v>7100107</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -16220,10 +16228,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>125173973</v>
+        <v>125174070</v>
       </c>
       <c r="B151" t="n">
-        <v>80112</v>
+        <v>80119</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -16231,21 +16239,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -16255,10 +16263,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>696805</v>
+        <v>696910</v>
       </c>
       <c r="R151" t="n">
-        <v>7100497</v>
+        <v>7100484</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -16301,21 +16309,6 @@
       </c>
       <c r="AG151" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ151" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK151" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO151" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT151" t="inlineStr"/>
       <c r="AW151" t="inlineStr">
@@ -16332,7 +16325,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>125173982</v>
+        <v>125173973</v>
       </c>
       <c r="B152" t="n">
         <v>80112</v>
@@ -16367,10 +16360,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>696852</v>
+        <v>696805</v>
       </c>
       <c r="R152" t="n">
-        <v>7100421</v>
+        <v>7100497</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -16413,6 +16406,21 @@
       </c>
       <c r="AG152" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ152" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK152" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO152" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT152" t="inlineStr"/>
       <c r="AW152" t="inlineStr">
@@ -16429,10 +16437,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>125173965</v>
+        <v>125173982</v>
       </c>
       <c r="B153" t="n">
-        <v>56849</v>
+        <v>80112</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -16440,42 +16448,34 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>100138</v>
+        <v>6462</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>697153</v>
+        <v>696852</v>
       </c>
       <c r="R153" t="n">
-        <v>7100005</v>
+        <v>7100421</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>

--- a/artfynd/Orratjärnskullen artfynd.xlsx
+++ b/artfynd/Orratjärnskullen artfynd.xlsx
@@ -1524,32 +1524,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16944949</v>
+        <v>16944665</v>
       </c>
       <c r="B10" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>697230</v>
+        <v>696959</v>
       </c>
       <c r="R10" t="n">
-        <v>7100208</v>
+        <v>7100686</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1636,32 +1636,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16944665</v>
+        <v>16944949</v>
       </c>
       <c r="B11" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>696959</v>
+        <v>697230</v>
       </c>
       <c r="R11" t="n">
-        <v>7100686</v>
+        <v>7100208</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2039,32 +2039,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>125174018</v>
+        <v>125174065</v>
       </c>
       <c r="B15" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>696798</v>
+        <v>697385</v>
       </c>
       <c r="R15" t="n">
-        <v>7100498</v>
+        <v>7099981</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>125173951</v>
+        <v>125173980</v>
       </c>
       <c r="B16" t="n">
-        <v>91210</v>
+        <v>80112</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2162,21 +2162,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2186,10 +2186,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>697318</v>
+        <v>697377</v>
       </c>
       <c r="R16" t="n">
-        <v>7099916</v>
+        <v>7099952</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2232,6 +2232,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2248,27 +2263,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>125174110</v>
+        <v>125174119</v>
       </c>
       <c r="B17" t="n">
-        <v>78980</v>
+        <v>80118</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2283,10 +2298,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>697340</v>
+        <v>697122</v>
       </c>
       <c r="R17" t="n">
-        <v>7100068</v>
+        <v>7100444</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2329,6 +2344,21 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2345,7 +2375,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>125174030</v>
+        <v>125174018</v>
       </c>
       <c r="B18" t="n">
         <v>80083</v>
@@ -2380,10 +2410,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>697373</v>
+        <v>696798</v>
       </c>
       <c r="R18" t="n">
-        <v>7099946</v>
+        <v>7100498</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2429,17 +2459,17 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2457,10 +2487,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>125174065</v>
+        <v>125173951</v>
       </c>
       <c r="B19" t="n">
-        <v>80119</v>
+        <v>91210</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2468,21 +2498,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6464</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2492,10 +2522,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>697385</v>
+        <v>697318</v>
       </c>
       <c r="R19" t="n">
-        <v>7099981</v>
+        <v>7099916</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2538,21 +2568,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2569,32 +2584,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>125173980</v>
+        <v>125174110</v>
       </c>
       <c r="B20" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2604,10 +2619,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>697377</v>
+        <v>697340</v>
       </c>
       <c r="R20" t="n">
-        <v>7099952</v>
+        <v>7100068</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2650,21 +2665,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2681,32 +2681,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>125174119</v>
+        <v>125174030</v>
       </c>
       <c r="B21" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2716,10 +2716,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>697122</v>
+        <v>697373</v>
       </c>
       <c r="R21" t="n">
-        <v>7100444</v>
+        <v>7099946</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>125174051</v>
+        <v>125173961</v>
       </c>
       <c r="B23" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2917,21 +2917,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>696757</v>
+        <v>697376</v>
       </c>
       <c r="R23" t="n">
-        <v>7100544</v>
+        <v>7100080</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>125174042</v>
+        <v>125173956</v>
       </c>
       <c r="B24" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3014,21 +3014,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3038,10 +3038,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>696806</v>
+        <v>697350</v>
       </c>
       <c r="R24" t="n">
-        <v>7100461</v>
+        <v>7100158</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>125174109</v>
+        <v>125174051</v>
       </c>
       <c r="B25" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3111,21 +3111,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>697307</v>
+        <v>696757</v>
       </c>
       <c r="R25" t="n">
-        <v>7099967</v>
+        <v>7100544</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3197,32 +3197,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125174034</v>
+        <v>125173984</v>
       </c>
       <c r="B26" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>696969</v>
+        <v>696809</v>
       </c>
       <c r="R26" t="n">
-        <v>7100455</v>
+        <v>7100467</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3294,32 +3294,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>125173984</v>
+        <v>125174042</v>
       </c>
       <c r="B27" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>696809</v>
+        <v>696806</v>
       </c>
       <c r="R27" t="n">
-        <v>7100467</v>
+        <v>7100461</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>125173961</v>
+        <v>125174109</v>
       </c>
       <c r="B28" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3402,21 +3402,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>697376</v>
+        <v>697307</v>
       </c>
       <c r="R28" t="n">
-        <v>7100080</v>
+        <v>7099967</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>125173956</v>
+        <v>125174034</v>
       </c>
       <c r="B29" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3499,21 +3499,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>697350</v>
+        <v>696969</v>
       </c>
       <c r="R29" t="n">
-        <v>7100158</v>
+        <v>7100455</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3585,32 +3585,32 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>125173994</v>
+        <v>16944659</v>
       </c>
       <c r="B30" t="n">
-        <v>91256</v>
+        <v>80083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3620,10 +3620,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>697235</v>
+        <v>697216</v>
       </c>
       <c r="R30" t="n">
-        <v>7100199</v>
+        <v>7100234</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3650,12 +3650,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3666,6 +3666,21 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -3682,7 +3697,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>125174061</v>
+        <v>16944666</v>
       </c>
       <c r="B31" t="n">
         <v>80083</v>
@@ -3717,10 +3732,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>697333</v>
+        <v>697230</v>
       </c>
       <c r="R31" t="n">
-        <v>7099890</v>
+        <v>7100208</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3747,12 +3762,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3763,6 +3778,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -3779,10 +3809,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>125174107</v>
+        <v>56623327</v>
       </c>
       <c r="B32" t="n">
-        <v>78980</v>
+        <v>79598</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3790,21 +3820,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3814,13 +3844,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>697217</v>
+        <v>697110</v>
       </c>
       <c r="R32" t="n">
-        <v>7100273</v>
+        <v>7100060</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3844,12 +3874,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3864,22 +3894,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>125174035</v>
+        <v>126313437</v>
       </c>
       <c r="B33" t="n">
-        <v>80083</v>
+        <v>57657</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3887,34 +3917,39 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>696909</v>
+        <v>697221</v>
       </c>
       <c r="R33" t="n">
-        <v>7100484</v>
+        <v>7099935</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3941,12 +3976,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3957,26 +3992,46 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Färska ringhack</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Färska ringhack</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16944659</v>
+        <v>126313436</v>
       </c>
       <c r="B34" t="n">
-        <v>80083</v>
+        <v>57657</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3984,34 +4039,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>697216</v>
+        <v>697344</v>
       </c>
       <c r="R34" t="n">
-        <v>7100234</v>
+        <v>7099931</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4038,12 +4098,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4057,35 +4117,40 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Ringhack på levande gran</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies # Ringhack på levande gran</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16944666</v>
+        <v>126313449</v>
       </c>
       <c r="B35" t="n">
         <v>80083</v>
@@ -4120,10 +4185,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>697230</v>
+        <v>696836</v>
       </c>
       <c r="R35" t="n">
-        <v>7100208</v>
+        <v>7100356</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4150,12 +4215,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4177,52 +4242,57 @@
           <t>Salix caprea</t>
         </is>
       </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Knäckt sälg i fuktdråg</t>
+        </is>
+      </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Salix caprea # Knäckt sälg i fuktdråg</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56623327</v>
+        <v>125173994</v>
       </c>
       <c r="B36" t="n">
-        <v>79598</v>
+        <v>91256</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6453</v>
+        <v>1205</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4232,13 +4302,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>697110</v>
+        <v>697235</v>
       </c>
       <c r="R36" t="n">
-        <v>7100060</v>
+        <v>7100199</v>
       </c>
       <c r="S36" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4262,12 +4332,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4282,22 +4352,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>126313437</v>
+        <v>125174061</v>
       </c>
       <c r="B37" t="n">
-        <v>57657</v>
+        <v>80083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4305,39 +4375,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>697221</v>
+        <v>697333</v>
       </c>
       <c r="R37" t="n">
-        <v>7099935</v>
+        <v>7099890</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4364,12 +4429,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4380,46 +4445,26 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>Färska ringhack</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Färska ringhack</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>126313436</v>
+        <v>125174107</v>
       </c>
       <c r="B38" t="n">
-        <v>57657</v>
+        <v>78980</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4427,39 +4472,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>697344</v>
+        <v>697217</v>
       </c>
       <c r="R38" t="n">
-        <v>7099931</v>
+        <v>7100273</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4486,12 +4526,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4502,43 +4542,23 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>Ringhack på levande gran</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Picea abies # Ringhack på levande gran</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>126313449</v>
+        <v>125174035</v>
       </c>
       <c r="B39" t="n">
         <v>80083</v>
@@ -4573,10 +4593,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>696836</v>
+        <v>696909</v>
       </c>
       <c r="R39" t="n">
-        <v>7100356</v>
+        <v>7100484</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4603,12 +4623,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4619,36 +4639,16 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>Knäckt sälg i fuktdråg</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Salix caprea # Knäckt sälg i fuktdråg</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
@@ -5461,54 +5461,45 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>125174080</v>
+        <v>125174118</v>
       </c>
       <c r="B48" t="n">
-        <v>56840</v>
+        <v>80118</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>102612</v>
+        <v>6463</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>697197</v>
+        <v>697016</v>
       </c>
       <c r="R48" t="n">
-        <v>7100428</v>
+        <v>7100382</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5551,6 +5542,21 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -5567,10 +5573,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>126313435</v>
+        <v>125174080</v>
       </c>
       <c r="B49" t="n">
-        <v>57657</v>
+        <v>56840</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5578,16 +5584,16 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>102612</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5595,10 +5601,14 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5607,10 +5617,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>697250</v>
+        <v>697197</v>
       </c>
       <c r="R49" t="n">
-        <v>7099955</v>
+        <v>7100428</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5637,12 +5647,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5653,81 +5663,66 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL49" t="inlineStr">
-        <is>
-          <t>Ringhack lågt ned på stammen</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Picea abies # Ringhack lågt ned på stammen</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>125174118</v>
+        <v>126313435</v>
       </c>
       <c r="B50" t="n">
-        <v>80118</v>
+        <v>57657</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>697016</v>
+        <v>697250</v>
       </c>
       <c r="R50" t="n">
-        <v>7100382</v>
+        <v>7099955</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5754,12 +5749,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5773,28 +5768,33 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>Ringhack lågt ned på stammen</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies # Ringhack lågt ned på stammen</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
@@ -5903,10 +5903,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>125173970</v>
+        <v>125174029</v>
       </c>
       <c r="B52" t="n">
-        <v>58138</v>
+        <v>80083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5914,43 +5914,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>103018</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ficedula hypoleuca</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Pallas, 1764)</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>697400</v>
+        <v>697365</v>
       </c>
       <c r="R52" t="n">
-        <v>7100065</v>
+        <v>7099907</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5993,6 +5984,21 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6106,10 +6112,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>125174116</v>
+        <v>125173987</v>
       </c>
       <c r="B54" t="n">
-        <v>80118</v>
+        <v>80112</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6117,21 +6123,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6141,10 +6147,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>697400</v>
+        <v>696928</v>
       </c>
       <c r="R54" t="n">
-        <v>7100102</v>
+        <v>7100550</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6203,10 +6209,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>125173978</v>
+        <v>125174116</v>
       </c>
       <c r="B55" t="n">
-        <v>80112</v>
+        <v>80118</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6214,21 +6220,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6238,10 +6244,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>697341</v>
+        <v>697400</v>
       </c>
       <c r="R55" t="n">
-        <v>7100020</v>
+        <v>7100102</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6284,21 +6290,6 @@
       </c>
       <c r="AG55" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -6315,32 +6306,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>125174029</v>
+        <v>125173978</v>
       </c>
       <c r="B56" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6350,10 +6341,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>697365</v>
+        <v>697341</v>
       </c>
       <c r="R56" t="n">
-        <v>7099907</v>
+        <v>7100020</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6427,32 +6418,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>125173987</v>
+        <v>125174046</v>
       </c>
       <c r="B57" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6462,10 +6453,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>696928</v>
+        <v>696811</v>
       </c>
       <c r="R57" t="n">
-        <v>7100550</v>
+        <v>7100494</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6524,7 +6515,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>125174046</v>
+        <v>125174033</v>
       </c>
       <c r="B58" t="n">
         <v>80083</v>
@@ -6559,10 +6550,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>696811</v>
+        <v>697007</v>
       </c>
       <c r="R58" t="n">
-        <v>7100494</v>
+        <v>7100392</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -6621,10 +6612,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>125174033</v>
+        <v>125173970</v>
       </c>
       <c r="B59" t="n">
-        <v>80083</v>
+        <v>58138</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6632,34 +6623,43 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>103018</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ficedula hypoleuca</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(Pallas, 1764)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>697007</v>
+        <v>697400</v>
       </c>
       <c r="R59" t="n">
-        <v>7100392</v>
+        <v>7100065</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>125174082</v>
+        <v>125174007</v>
       </c>
       <c r="B62" t="n">
-        <v>91241</v>
+        <v>58087</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6953,34 +6953,43 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1108</v>
+        <v>103001</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>Linnaeus, 1766</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>696822</v>
+        <v>697318</v>
       </c>
       <c r="R62" t="n">
-        <v>7100553</v>
+        <v>7099919</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -7039,10 +7048,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>125174113</v>
+        <v>125174082</v>
       </c>
       <c r="B63" t="n">
-        <v>78980</v>
+        <v>91241</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7050,21 +7059,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7074,10 +7083,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>697340</v>
+        <v>696822</v>
       </c>
       <c r="R63" t="n">
-        <v>7100105</v>
+        <v>7100553</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -7136,10 +7145,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>125174027</v>
+        <v>125174113</v>
       </c>
       <c r="B64" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7147,21 +7156,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7171,10 +7180,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>697224</v>
+        <v>697340</v>
       </c>
       <c r="R64" t="n">
-        <v>7099960</v>
+        <v>7100105</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -7217,21 +7226,6 @@
       </c>
       <c r="AG64" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ64" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK64" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO64" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
@@ -7248,32 +7242,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>125173954</v>
+        <v>125174027</v>
       </c>
       <c r="B65" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7283,10 +7277,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>697281</v>
+        <v>697224</v>
       </c>
       <c r="R65" t="n">
-        <v>7099991</v>
+        <v>7099960</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -7329,6 +7323,21 @@
       </c>
       <c r="AG65" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
@@ -7345,54 +7354,45 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>125174007</v>
+        <v>125173954</v>
       </c>
       <c r="B66" t="n">
-        <v>58087</v>
+        <v>91210</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>103001</v>
+        <v>5447</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>697318</v>
+        <v>697281</v>
       </c>
       <c r="R66" t="n">
-        <v>7099919</v>
+        <v>7099991</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -8388,32 +8388,32 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>125174057</v>
+        <v>125174071</v>
       </c>
       <c r="B76" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8423,10 +8423,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>697236</v>
+        <v>696795</v>
       </c>
       <c r="R76" t="n">
-        <v>7100408</v>
+        <v>7100474</v>
       </c>
       <c r="S76" t="n">
         <v>5</v>
@@ -8485,32 +8485,32 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>125174108</v>
+        <v>125173972</v>
       </c>
       <c r="B77" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8520,10 +8520,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>697225</v>
+        <v>697004</v>
       </c>
       <c r="R77" t="n">
-        <v>7100135</v>
+        <v>7100506</v>
       </c>
       <c r="S77" t="n">
         <v>5</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>125174023</v>
+        <v>125174057</v>
       </c>
       <c r="B78" t="n">
         <v>80083</v>
@@ -8617,10 +8617,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>696964</v>
+        <v>697236</v>
       </c>
       <c r="R78" t="n">
-        <v>7100364</v>
+        <v>7100408</v>
       </c>
       <c r="S78" t="n">
         <v>5</v>
@@ -8663,21 +8663,6 @@
       </c>
       <c r="AG78" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ78" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK78" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO78" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
@@ -8694,10 +8679,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>125174014</v>
+        <v>125174108</v>
       </c>
       <c r="B79" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8705,21 +8690,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8729,10 +8714,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>696820</v>
+        <v>697225</v>
       </c>
       <c r="R79" t="n">
-        <v>7100397</v>
+        <v>7100135</v>
       </c>
       <c r="S79" t="n">
         <v>5</v>
@@ -8775,21 +8760,6 @@
       </c>
       <c r="AG79" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ79" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK79" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
@@ -8806,7 +8776,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>125174040</v>
+        <v>125174023</v>
       </c>
       <c r="B80" t="n">
         <v>80083</v>
@@ -8841,10 +8811,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>696832</v>
+        <v>696964</v>
       </c>
       <c r="R80" t="n">
-        <v>7100425</v>
+        <v>7100364</v>
       </c>
       <c r="S80" t="n">
         <v>5</v>
@@ -8887,6 +8857,21 @@
       </c>
       <c r="AG80" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
@@ -8903,10 +8888,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>125174090</v>
+        <v>125174014</v>
       </c>
       <c r="B81" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8914,21 +8899,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8938,10 +8923,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>696875</v>
+        <v>696820</v>
       </c>
       <c r="R81" t="n">
-        <v>7100596</v>
+        <v>7100397</v>
       </c>
       <c r="S81" t="n">
         <v>5</v>
@@ -8984,6 +8969,21 @@
       </c>
       <c r="AG81" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
@@ -9000,10 +9000,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>125174071</v>
+        <v>125173974</v>
       </c>
       <c r="B82" t="n">
-        <v>80119</v>
+        <v>80112</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9011,21 +9011,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6464</v>
+        <v>6462</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>696795</v>
+        <v>696856</v>
       </c>
       <c r="R82" t="n">
-        <v>7100474</v>
+        <v>7100650</v>
       </c>
       <c r="S82" t="n">
         <v>5</v>
@@ -9081,6 +9081,21 @@
       </c>
       <c r="AG82" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
@@ -9097,32 +9112,32 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>125173972</v>
+        <v>125174040</v>
       </c>
       <c r="B83" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9132,10 +9147,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>697004</v>
+        <v>696832</v>
       </c>
       <c r="R83" t="n">
-        <v>7100506</v>
+        <v>7100425</v>
       </c>
       <c r="S83" t="n">
         <v>5</v>
@@ -9194,32 +9209,32 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>125173974</v>
+        <v>125174090</v>
       </c>
       <c r="B84" t="n">
-        <v>80112</v>
+        <v>91263</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9229,10 +9244,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>696856</v>
+        <v>696875</v>
       </c>
       <c r="R84" t="n">
-        <v>7100650</v>
+        <v>7100596</v>
       </c>
       <c r="S84" t="n">
         <v>5</v>
@@ -9275,21 +9290,6 @@
       </c>
       <c r="AG84" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ84" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK84" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO84" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
@@ -9306,32 +9306,32 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>125173957</v>
+        <v>125173981</v>
       </c>
       <c r="B85" t="n">
-        <v>91245</v>
+        <v>80112</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9341,10 +9341,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>696880</v>
+        <v>696809</v>
       </c>
       <c r="R85" t="n">
-        <v>7100627</v>
+        <v>7100403</v>
       </c>
       <c r="S85" t="n">
         <v>5</v>
@@ -9403,32 +9403,32 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>125173981</v>
+        <v>125174089</v>
       </c>
       <c r="B86" t="n">
-        <v>80112</v>
+        <v>91263</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9438,10 +9438,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>696809</v>
+        <v>696871</v>
       </c>
       <c r="R86" t="n">
-        <v>7100403</v>
+        <v>7100581</v>
       </c>
       <c r="S86" t="n">
         <v>5</v>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>125174089</v>
+        <v>126313461</v>
       </c>
       <c r="B87" t="n">
         <v>91263</v>
@@ -9535,10 +9535,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>696871</v>
+        <v>697437</v>
       </c>
       <c r="R87" t="n">
-        <v>7100581</v>
+        <v>7099656</v>
       </c>
       <c r="S87" t="n">
         <v>5</v>
@@ -9565,12 +9565,12 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9581,26 +9581,46 @@
       </c>
       <c r="AG87" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>126313464</v>
+        <v>125173957</v>
       </c>
       <c r="B88" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9608,21 +9628,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9632,10 +9652,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>696928</v>
+        <v>696880</v>
       </c>
       <c r="R88" t="n">
-        <v>7100192</v>
+        <v>7100627</v>
       </c>
       <c r="S88" t="n">
         <v>5</v>
@@ -9662,12 +9682,12 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -9678,46 +9698,26 @@
       </c>
       <c r="AG88" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ88" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK88" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL88" t="inlineStr">
-        <is>
-          <t>Död, tunn stam</t>
-        </is>
-      </c>
-      <c r="AO88" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Död, tunn stam</t>
-        </is>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>126313453</v>
+        <v>126313464</v>
       </c>
       <c r="B89" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9725,21 +9725,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>696848</v>
+        <v>696928</v>
       </c>
       <c r="R89" t="n">
-        <v>7100320</v>
+        <v>7100192</v>
       </c>
       <c r="S89" t="n">
         <v>5</v>
@@ -9798,17 +9798,22 @@
       </c>
       <c r="AJ89" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK89" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>Död, tunn stam</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris # Död, tunn stam</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -9938,10 +9943,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>126313461</v>
+        <v>126313453</v>
       </c>
       <c r="B91" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9949,21 +9954,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9973,10 +9978,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>697437</v>
+        <v>696848</v>
       </c>
       <c r="R91" t="n">
-        <v>7099656</v>
+        <v>7100320</v>
       </c>
       <c r="S91" t="n">
         <v>5</v>
@@ -10022,22 +10027,17 @@
       </c>
       <c r="AJ91" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL91" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr"/>
@@ -10249,32 +10249,32 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>125174032</v>
+        <v>125173977</v>
       </c>
       <c r="B94" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10284,10 +10284,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>697013</v>
+        <v>697260</v>
       </c>
       <c r="R94" t="n">
-        <v>7100389</v>
+        <v>7099966</v>
       </c>
       <c r="S94" t="n">
         <v>5</v>
@@ -10330,6 +10330,21 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
@@ -10346,7 +10361,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>125174053</v>
+        <v>125174032</v>
       </c>
       <c r="B95" t="n">
         <v>80083</v>
@@ -10381,10 +10396,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>696839</v>
+        <v>697013</v>
       </c>
       <c r="R95" t="n">
-        <v>7100595</v>
+        <v>7100389</v>
       </c>
       <c r="S95" t="n">
         <v>5</v>
@@ -10443,10 +10458,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>125173977</v>
+        <v>125174066</v>
       </c>
       <c r="B96" t="n">
-        <v>80112</v>
+        <v>80119</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10454,21 +10469,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10478,10 +10493,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>697260</v>
+        <v>697416</v>
       </c>
       <c r="R96" t="n">
-        <v>7099966</v>
+        <v>7100143</v>
       </c>
       <c r="S96" t="n">
         <v>5</v>
@@ -10527,17 +10542,17 @@
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK96" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT96" t="inlineStr"/>
@@ -10555,32 +10570,32 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>125174066</v>
+        <v>125174053</v>
       </c>
       <c r="B97" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10590,10 +10605,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>697416</v>
+        <v>696839</v>
       </c>
       <c r="R97" t="n">
-        <v>7100143</v>
+        <v>7100595</v>
       </c>
       <c r="S97" t="n">
         <v>5</v>
@@ -10636,21 +10651,6 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
@@ -10896,32 +10896,32 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>56623321</v>
+        <v>16944661</v>
       </c>
       <c r="B100" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -10931,13 +10931,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>697110</v>
+        <v>696835</v>
       </c>
       <c r="R100" t="n">
-        <v>7100060</v>
+        <v>7100448</v>
       </c>
       <c r="S100" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -10977,48 +10977,63 @@
       </c>
       <c r="AG100" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO100" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>16944661</v>
+        <v>56623321</v>
       </c>
       <c r="B101" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11028,13 +11043,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>696835</v>
+        <v>697110</v>
       </c>
       <c r="R101" t="n">
-        <v>7100448</v>
+        <v>7100060</v>
       </c>
       <c r="S101" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -11074,63 +11089,48 @@
       </c>
       <c r="AG101" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ101" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK101" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO101" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>125174059</v>
+        <v>125174079</v>
       </c>
       <c r="B102" t="n">
-        <v>80083</v>
+        <v>98361</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11140,10 +11140,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>697369</v>
+        <v>697060</v>
       </c>
       <c r="R102" t="n">
-        <v>7100092</v>
+        <v>7100461</v>
       </c>
       <c r="S102" t="n">
         <v>5</v>
@@ -11202,10 +11202,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>125174100</v>
+        <v>126313448</v>
       </c>
       <c r="B103" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11213,21 +11213,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11237,10 +11237,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>697310</v>
+        <v>696833</v>
       </c>
       <c r="R103" t="n">
-        <v>7099964</v>
+        <v>7100390</v>
       </c>
       <c r="S103" t="n">
         <v>5</v>
@@ -11267,12 +11267,12 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11283,23 +11283,43 @@
       </c>
       <c r="AG103" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK103" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL103" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>Salix caprea # Rikligt</t>
+        </is>
       </c>
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>125174025</v>
+        <v>125174059</v>
       </c>
       <c r="B104" t="n">
         <v>80083</v>
@@ -11334,10 +11354,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>696829</v>
+        <v>697369</v>
       </c>
       <c r="R104" t="n">
-        <v>7100468</v>
+        <v>7100092</v>
       </c>
       <c r="S104" t="n">
         <v>5</v>
@@ -11380,21 +11400,6 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ104" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK104" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO104" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
@@ -11411,10 +11416,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>125174036</v>
+        <v>125174100</v>
       </c>
       <c r="B105" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11422,21 +11427,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -11446,10 +11451,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>696916</v>
+        <v>697310</v>
       </c>
       <c r="R105" t="n">
-        <v>7100475</v>
+        <v>7099964</v>
       </c>
       <c r="S105" t="n">
         <v>5</v>
@@ -11508,10 +11513,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>125174097</v>
+        <v>125174025</v>
       </c>
       <c r="B106" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11519,21 +11524,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -11543,10 +11548,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>697365</v>
+        <v>696829</v>
       </c>
       <c r="R106" t="n">
-        <v>7100060</v>
+        <v>7100468</v>
       </c>
       <c r="S106" t="n">
         <v>5</v>
@@ -11589,6 +11594,21 @@
       </c>
       <c r="AG106" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ106" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK106" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO106" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
@@ -11605,7 +11625,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>125174017</v>
+        <v>125174036</v>
       </c>
       <c r="B107" t="n">
         <v>80083</v>
@@ -11640,10 +11660,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>696783</v>
+        <v>696916</v>
       </c>
       <c r="R107" t="n">
-        <v>7100481</v>
+        <v>7100475</v>
       </c>
       <c r="S107" t="n">
         <v>5</v>
@@ -11686,21 +11706,6 @@
       </c>
       <c r="AG107" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ107" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK107" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
@@ -11717,7 +11722,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>125174088</v>
+        <v>125174097</v>
       </c>
       <c r="B108" t="n">
         <v>91263</v>
@@ -11752,10 +11757,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>696793</v>
+        <v>697365</v>
       </c>
       <c r="R108" t="n">
-        <v>7100497</v>
+        <v>7100060</v>
       </c>
       <c r="S108" t="n">
         <v>5</v>
@@ -11814,32 +11819,32 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>125174079</v>
+        <v>125174017</v>
       </c>
       <c r="B109" t="n">
-        <v>98361</v>
+        <v>80083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -11849,10 +11854,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>697060</v>
+        <v>696783</v>
       </c>
       <c r="R109" t="n">
-        <v>7100461</v>
+        <v>7100481</v>
       </c>
       <c r="S109" t="n">
         <v>5</v>
@@ -11895,6 +11900,21 @@
       </c>
       <c r="AG109" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ109" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK109" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO109" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
@@ -11911,10 +11931,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>126313448</v>
+        <v>125174088</v>
       </c>
       <c r="B110" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11922,21 +11942,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -11946,10 +11966,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>696833</v>
+        <v>696793</v>
       </c>
       <c r="R110" t="n">
-        <v>7100390</v>
+        <v>7100497</v>
       </c>
       <c r="S110" t="n">
         <v>5</v>
@@ -11976,12 +11996,12 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -11992,36 +12012,16 @@
       </c>
       <c r="AG110" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ110" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK110" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL110" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
-      <c r="AO110" t="inlineStr">
-        <is>
-          <t>Salix caprea # Rikligt</t>
-        </is>
       </c>
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
@@ -12140,27 +12140,27 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>125174076</v>
+        <v>126313434</v>
       </c>
       <c r="B112" t="n">
-        <v>58027</v>
+        <v>57657</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>103015</v>
+        <v>100109</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -12168,26 +12168,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>697418</v>
+        <v>697322</v>
       </c>
       <c r="R112" t="n">
-        <v>7100124</v>
+        <v>7099950</v>
       </c>
       <c r="S112" t="n">
         <v>5</v>
@@ -12214,12 +12205,12 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12230,16 +12221,36 @@
       </c>
       <c r="AG112" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t>Ringhack lågt ned på stammen</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
+          <t>Picea abies # Ringhack lågt ned på stammen</t>
+        </is>
       </c>
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
@@ -12552,27 +12563,27 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>126313434</v>
+        <v>125174076</v>
       </c>
       <c r="B116" t="n">
-        <v>57657</v>
+        <v>58027</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>100109</v>
+        <v>103015</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -12580,17 +12591,26 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P116" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>697322</v>
+        <v>697418</v>
       </c>
       <c r="R116" t="n">
-        <v>7099950</v>
+        <v>7100124</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -12617,12 +12637,12 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -12633,36 +12653,16 @@
       </c>
       <c r="AG116" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ116" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK116" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL116" t="inlineStr">
-        <is>
-          <t>Ringhack lågt ned på stammen</t>
-        </is>
-      </c>
-      <c r="AO116" t="inlineStr">
-        <is>
-          <t>Picea abies # Ringhack lågt ned på stammen</t>
-        </is>
       </c>
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13942,45 +13942,53 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>125174095</v>
+        <v>125173967</v>
       </c>
       <c r="B129" t="n">
-        <v>91263</v>
+        <v>56849</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5432</v>
+        <v>100138</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>697350</v>
+        <v>697222</v>
       </c>
       <c r="R129" t="n">
-        <v>7100114</v>
+        <v>7099985</v>
       </c>
       <c r="S129" t="n">
         <v>5</v>
@@ -14039,45 +14047,53 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>125174043</v>
+        <v>125173968</v>
       </c>
       <c r="B130" t="n">
-        <v>80083</v>
+        <v>56849</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6458</v>
+        <v>100138</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>696813</v>
+        <v>697296</v>
       </c>
       <c r="R130" t="n">
-        <v>7100472</v>
+        <v>7100057</v>
       </c>
       <c r="S130" t="n">
         <v>5</v>
@@ -14136,45 +14152,54 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>125174063</v>
+        <v>125174075</v>
       </c>
       <c r="B131" t="n">
-        <v>80083</v>
+        <v>58027</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6458</v>
+        <v>103015</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P131" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>697412</v>
+        <v>697312</v>
       </c>
       <c r="R131" t="n">
-        <v>7100138</v>
+        <v>7099965</v>
       </c>
       <c r="S131" t="n">
         <v>5</v>
@@ -14233,32 +14258,32 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>125173975</v>
+        <v>125174095</v>
       </c>
       <c r="B132" t="n">
-        <v>80112</v>
+        <v>91263</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -14268,10 +14293,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>697414</v>
+        <v>697350</v>
       </c>
       <c r="R132" t="n">
-        <v>7100139</v>
+        <v>7100114</v>
       </c>
       <c r="S132" t="n">
         <v>5</v>
@@ -14314,21 +14339,6 @@
       </c>
       <c r="AG132" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ132" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK132" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO132" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
@@ -14345,10 +14355,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>125173967</v>
+        <v>125173975</v>
       </c>
       <c r="B133" t="n">
-        <v>56849</v>
+        <v>80112</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -14356,42 +14366,34 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100138</v>
+        <v>6462</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>697222</v>
+        <v>697414</v>
       </c>
       <c r="R133" t="n">
-        <v>7099985</v>
+        <v>7100139</v>
       </c>
       <c r="S133" t="n">
         <v>5</v>
@@ -14434,6 +14436,21 @@
       </c>
       <c r="AG133" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK133" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO133" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT133" t="inlineStr"/>
       <c r="AW133" t="inlineStr">
@@ -14450,53 +14467,45 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>125173968</v>
+        <v>125174043</v>
       </c>
       <c r="B134" t="n">
-        <v>56849</v>
+        <v>80083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>100138</v>
+        <v>6458</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>697296</v>
+        <v>696813</v>
       </c>
       <c r="R134" t="n">
-        <v>7100057</v>
+        <v>7100472</v>
       </c>
       <c r="S134" t="n">
         <v>5</v>
@@ -14555,54 +14564,45 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>125174075</v>
+        <v>125174063</v>
       </c>
       <c r="B135" t="n">
-        <v>58027</v>
+        <v>80083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>103015</v>
+        <v>6458</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>697312</v>
+        <v>697412</v>
       </c>
       <c r="R135" t="n">
-        <v>7099965</v>
+        <v>7100138</v>
       </c>
       <c r="S135" t="n">
         <v>5</v>
@@ -14875,32 +14875,32 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>125174041</v>
+        <v>125174069</v>
       </c>
       <c r="B138" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -14910,10 +14910,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>696836</v>
+        <v>697262</v>
       </c>
       <c r="R138" t="n">
-        <v>7100429</v>
+        <v>7099968</v>
       </c>
       <c r="S138" t="n">
         <v>5</v>
@@ -14956,6 +14956,21 @@
       </c>
       <c r="AG138" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ138" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK138" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO138" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT138" t="inlineStr"/>
       <c r="AW138" t="inlineStr">
@@ -14972,10 +14987,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>125174106</v>
+        <v>125174041</v>
       </c>
       <c r="B139" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14983,21 +14998,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -15007,10 +15022,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>697232</v>
+        <v>696836</v>
       </c>
       <c r="R139" t="n">
-        <v>7100373</v>
+        <v>7100429</v>
       </c>
       <c r="S139" t="n">
         <v>5</v>
@@ -15069,54 +15084,45 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>125173969</v>
+        <v>125173976</v>
       </c>
       <c r="B140" t="n">
-        <v>58138</v>
+        <v>80112</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>103018</v>
+        <v>6462</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Ficedula hypoleuca</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Pallas, 1764)</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>696888</v>
+        <v>697239</v>
       </c>
       <c r="R140" t="n">
-        <v>7100648</v>
+        <v>7100385</v>
       </c>
       <c r="S140" t="n">
         <v>5</v>
@@ -15159,6 +15165,21 @@
       </c>
       <c r="AG140" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ140" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK140" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO140" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT140" t="inlineStr"/>
       <c r="AW140" t="inlineStr">
@@ -15175,10 +15196,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>126313456</v>
+        <v>125174106</v>
       </c>
       <c r="B141" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -15186,21 +15207,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -15210,10 +15231,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>696817</v>
+        <v>697232</v>
       </c>
       <c r="R141" t="n">
-        <v>7100400</v>
+        <v>7100373</v>
       </c>
       <c r="S141" t="n">
         <v>5</v>
@@ -15240,12 +15261,12 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD141" t="b">
@@ -15256,76 +15277,70 @@
       </c>
       <c r="AG141" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ141" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK141" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO141" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT141" t="inlineStr"/>
       <c r="AW141" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX141" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>125174069</v>
+        <v>125173969</v>
       </c>
       <c r="B142" t="n">
-        <v>80119</v>
+        <v>58138</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6464</v>
+        <v>103018</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Ficedula hypoleuca</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr"/>
+          <t>(Pallas, 1764)</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P142" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>697262</v>
+        <v>696888</v>
       </c>
       <c r="R142" t="n">
-        <v>7099968</v>
+        <v>7100648</v>
       </c>
       <c r="S142" t="n">
         <v>5</v>
@@ -15368,21 +15383,6 @@
       </c>
       <c r="AG142" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ142" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK142" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO142" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT142" t="inlineStr"/>
       <c r="AW142" t="inlineStr">
@@ -15399,32 +15399,32 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>125173976</v>
+        <v>126313456</v>
       </c>
       <c r="B143" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -15434,10 +15434,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>697239</v>
+        <v>696817</v>
       </c>
       <c r="R143" t="n">
-        <v>7100385</v>
+        <v>7100400</v>
       </c>
       <c r="S143" t="n">
         <v>5</v>
@@ -15464,12 +15464,12 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD143" t="b">
@@ -15483,28 +15483,28 @@
       </c>
       <c r="AJ143" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK143" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO143" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT143" t="inlineStr"/>
       <c r="AW143" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX143" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY143" t="inlineStr"/>
@@ -15720,53 +15720,45 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>125173965</v>
+        <v>126313451</v>
       </c>
       <c r="B146" t="n">
-        <v>56849</v>
+        <v>80083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>100138</v>
+        <v>6458</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>697153</v>
+        <v>697002</v>
       </c>
       <c r="R146" t="n">
-        <v>7100005</v>
+        <v>7099803</v>
       </c>
       <c r="S146" t="n">
         <v>5</v>
@@ -15793,12 +15785,12 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD146" t="b">
@@ -15809,26 +15801,46 @@
       </c>
       <c r="AG146" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ146" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK146" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL146" t="inlineStr">
+        <is>
+          <t>Rikligt på 2 sälgar bredvid varandra</t>
+        </is>
+      </c>
+      <c r="AO146" t="inlineStr">
+        <is>
+          <t>Salix caprea # Rikligt på 2 sälgar bredvid varandra</t>
+        </is>
       </c>
       <c r="AT146" t="inlineStr"/>
       <c r="AW146" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX146" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>125174103</v>
+        <v>126313452</v>
       </c>
       <c r="B147" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15836,21 +15848,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -15860,10 +15872,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>696805</v>
+        <v>696997</v>
       </c>
       <c r="R147" t="n">
-        <v>7100605</v>
+        <v>7099834</v>
       </c>
       <c r="S147" t="n">
         <v>5</v>
@@ -15890,12 +15902,12 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD147" t="b">
@@ -15906,48 +15918,63 @@
       </c>
       <c r="AG147" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK147" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT147" t="inlineStr"/>
       <c r="AW147" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX147" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>125174028</v>
+        <v>125174070</v>
       </c>
       <c r="B148" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -15957,10 +15984,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>697338</v>
+        <v>696910</v>
       </c>
       <c r="R148" t="n">
-        <v>7100024</v>
+        <v>7100484</v>
       </c>
       <c r="S148" t="n">
         <v>5</v>
@@ -16003,21 +16030,6 @@
       </c>
       <c r="AG148" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ148" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK148" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO148" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT148" t="inlineStr"/>
       <c r="AW148" t="inlineStr">
@@ -16034,10 +16046,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>125174049</v>
+        <v>125174103</v>
       </c>
       <c r="B149" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -16045,21 +16057,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -16069,10 +16081,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>696783</v>
+        <v>696805</v>
       </c>
       <c r="R149" t="n">
-        <v>7100499</v>
+        <v>7100605</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -16131,10 +16143,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>125173949</v>
+        <v>125173973</v>
       </c>
       <c r="B150" t="n">
-        <v>91210</v>
+        <v>80112</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -16142,21 +16154,21 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -16166,10 +16178,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>697264</v>
+        <v>696805</v>
       </c>
       <c r="R150" t="n">
-        <v>7100107</v>
+        <v>7100497</v>
       </c>
       <c r="S150" t="n">
         <v>5</v>
@@ -16212,6 +16224,21 @@
       </c>
       <c r="AG150" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ150" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK150" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO150" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT150" t="inlineStr"/>
       <c r="AW150" t="inlineStr">
@@ -16228,10 +16255,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>125174070</v>
+        <v>125173982</v>
       </c>
       <c r="B151" t="n">
-        <v>80119</v>
+        <v>80112</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -16239,21 +16266,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6464</v>
+        <v>6462</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -16263,10 +16290,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>696910</v>
+        <v>696852</v>
       </c>
       <c r="R151" t="n">
-        <v>7100484</v>
+        <v>7100421</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -16325,32 +16352,32 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>125173973</v>
+        <v>125174028</v>
       </c>
       <c r="B152" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -16360,10 +16387,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>696805</v>
+        <v>697338</v>
       </c>
       <c r="R152" t="n">
-        <v>7100497</v>
+        <v>7100024</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -16409,17 +16436,17 @@
       </c>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -16437,32 +16464,32 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>125173982</v>
+        <v>125174049</v>
       </c>
       <c r="B153" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -16472,10 +16499,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>696852</v>
+        <v>696783</v>
       </c>
       <c r="R153" t="n">
-        <v>7100421</v>
+        <v>7100499</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -16534,32 +16561,32 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>126313451</v>
+        <v>125173949</v>
       </c>
       <c r="B154" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -16569,10 +16596,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>697002</v>
+        <v>697264</v>
       </c>
       <c r="R154" t="n">
-        <v>7099803</v>
+        <v>7100107</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -16599,12 +16626,12 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD154" t="b">
@@ -16615,81 +16642,69 @@
       </c>
       <c r="AG154" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ154" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK154" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL154" t="inlineStr">
-        <is>
-          <t>Rikligt på 2 sälgar bredvid varandra</t>
-        </is>
-      </c>
-      <c r="AO154" t="inlineStr">
-        <is>
-          <t>Salix caprea # Rikligt på 2 sälgar bredvid varandra</t>
-        </is>
       </c>
       <c r="AT154" t="inlineStr"/>
       <c r="AW154" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX154" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>126313452</v>
+        <v>125173965</v>
       </c>
       <c r="B155" t="n">
-        <v>80083</v>
+        <v>56849</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6458</v>
+        <v>100138</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>696997</v>
+        <v>697153</v>
       </c>
       <c r="R155" t="n">
-        <v>7099834</v>
+        <v>7100005</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -16716,12 +16731,12 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD155" t="b">
@@ -16732,31 +16747,16 @@
       </c>
       <c r="AG155" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ155" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK155" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO155" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT155" t="inlineStr"/>
       <c r="AW155" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX155" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY155" t="inlineStr"/>
@@ -17569,32 +17569,32 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>16944794</v>
+        <v>16944662</v>
       </c>
       <c r="B164" t="n">
-        <v>98395</v>
+        <v>80083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -17604,10 +17604,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>697323</v>
+        <v>696956</v>
       </c>
       <c r="R164" t="n">
-        <v>7100086</v>
+        <v>7100421</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -17650,6 +17650,21 @@
       </c>
       <c r="AG164" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ164" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK164" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO164" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT164" t="inlineStr"/>
       <c r="AW164" t="inlineStr">
@@ -17666,32 +17681,32 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>16944662</v>
+        <v>16944794</v>
       </c>
       <c r="B165" t="n">
-        <v>80083</v>
+        <v>98395</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -17701,10 +17716,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>696956</v>
+        <v>697323</v>
       </c>
       <c r="R165" t="n">
-        <v>7100421</v>
+        <v>7100086</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -17747,21 +17762,6 @@
       </c>
       <c r="AG165" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ165" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK165" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO165" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT165" t="inlineStr"/>
       <c r="AW165" t="inlineStr">
@@ -17778,45 +17778,54 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>126313457</v>
+        <v>125174074</v>
       </c>
       <c r="B166" t="n">
-        <v>80083</v>
+        <v>58027</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>6458</v>
+        <v>103015</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P166" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>697476</v>
+        <v>696875</v>
       </c>
       <c r="R166" t="n">
-        <v>7099831</v>
+        <v>7100596</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -17843,12 +17852,12 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD166" t="b">
@@ -17859,63 +17868,48 @@
       </c>
       <c r="AG166" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ166" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK166" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO166" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT166" t="inlineStr"/>
       <c r="AW166" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX166" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>125173993</v>
+        <v>126313457</v>
       </c>
       <c r="B167" t="n">
-        <v>91256</v>
+        <v>80083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -17925,10 +17919,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>697233</v>
+        <v>697476</v>
       </c>
       <c r="R167" t="n">
-        <v>7100375</v>
+        <v>7099831</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -17955,12 +17949,12 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -17971,16 +17965,31 @@
       </c>
       <c r="AG167" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ167" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK167" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO167" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT167" t="inlineStr"/>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY167" t="inlineStr"/>
@@ -18196,10 +18205,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>125174074</v>
+        <v>125173993</v>
       </c>
       <c r="B170" t="n">
-        <v>58027</v>
+        <v>91256</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -18207,43 +18216,34 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>103015</v>
+        <v>1205</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>696875</v>
+        <v>697233</v>
       </c>
       <c r="R170" t="n">
-        <v>7100596</v>
+        <v>7100375</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -18613,10 +18613,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>125173959</v>
+        <v>125174072</v>
       </c>
       <c r="B174" t="n">
-        <v>91245</v>
+        <v>91652</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -18624,21 +18624,16 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1202</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Ullticka</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -18648,10 +18643,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>697101</v>
+        <v>697100</v>
       </c>
       <c r="R174" t="n">
-        <v>7100431</v>
+        <v>7100428</v>
       </c>
       <c r="S174" t="n">
         <v>5</v>
@@ -18710,10 +18705,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>125174098</v>
+        <v>125173959</v>
       </c>
       <c r="B175" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -18721,21 +18716,21 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
@@ -18745,10 +18740,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>697338</v>
+        <v>697101</v>
       </c>
       <c r="R175" t="n">
-        <v>7099927</v>
+        <v>7100431</v>
       </c>
       <c r="S175" t="n">
         <v>5</v>
@@ -18807,10 +18802,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>125174062</v>
+        <v>125174098</v>
       </c>
       <c r="B176" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -18818,21 +18813,21 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
@@ -18842,10 +18837,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>697388</v>
+        <v>697338</v>
       </c>
       <c r="R176" t="n">
-        <v>7100034</v>
+        <v>7099927</v>
       </c>
       <c r="S176" t="n">
         <v>5</v>
@@ -18904,7 +18899,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>125174037</v>
+        <v>125174062</v>
       </c>
       <c r="B177" t="n">
         <v>80083</v>
@@ -18939,10 +18934,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>696829</v>
+        <v>697388</v>
       </c>
       <c r="R177" t="n">
-        <v>7100396</v>
+        <v>7100034</v>
       </c>
       <c r="S177" t="n">
         <v>5</v>
@@ -19001,10 +18996,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>125174072</v>
+        <v>125174037</v>
       </c>
       <c r="B178" t="n">
-        <v>91652</v>
+        <v>80083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -19012,16 +19007,21 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6040186</v>
+        <v>6458</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
@@ -19031,10 +19031,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>697100</v>
+        <v>696829</v>
       </c>
       <c r="R178" t="n">
-        <v>7100428</v>
+        <v>7100396</v>
       </c>
       <c r="S178" t="n">
         <v>5</v>

--- a/artfynd/Orratjärnskullen artfynd.xlsx
+++ b/artfynd/Orratjärnskullen artfynd.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>125173990</v>
+        <v>125173979</v>
       </c>
       <c r="B3" t="n">
-        <v>91256</v>
+        <v>80112</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1205</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>696967</v>
+        <v>697354</v>
       </c>
       <c r="R3" t="n">
-        <v>7100367</v>
+        <v>7099947</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -873,6 +873,21 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -889,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>125173996</v>
+        <v>125174024</v>
       </c>
       <c r="B4" t="n">
-        <v>91195</v>
+        <v>80083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,21 +915,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>112</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +939,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>697394</v>
+        <v>696836</v>
       </c>
       <c r="R4" t="n">
-        <v>7100073</v>
+        <v>7100475</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -970,6 +985,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1098,32 +1128,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>125174052</v>
+        <v>125173990</v>
       </c>
       <c r="B6" t="n">
-        <v>80083</v>
+        <v>91256</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1133,10 +1163,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>696778</v>
+        <v>696967</v>
       </c>
       <c r="R6" t="n">
-        <v>7100527</v>
+        <v>7100367</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1195,7 +1225,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>125174024</v>
+        <v>125174052</v>
       </c>
       <c r="B7" t="n">
         <v>80083</v>
@@ -1230,10 +1260,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>696836</v>
+        <v>696778</v>
       </c>
       <c r="R7" t="n">
-        <v>7100475</v>
+        <v>7100527</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1276,21 +1306,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1307,32 +1322,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>125173979</v>
+        <v>125173996</v>
       </c>
       <c r="B8" t="n">
-        <v>80112</v>
+        <v>91195</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>112</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1342,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>697354</v>
+        <v>697394</v>
       </c>
       <c r="R8" t="n">
-        <v>7099947</v>
+        <v>7100073</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1388,21 +1403,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1524,32 +1524,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16944665</v>
+        <v>16944949</v>
       </c>
       <c r="B10" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>696959</v>
+        <v>697230</v>
       </c>
       <c r="R10" t="n">
-        <v>7100686</v>
+        <v>7100208</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1636,32 +1636,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16944949</v>
+        <v>16944665</v>
       </c>
       <c r="B11" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>697230</v>
+        <v>696959</v>
       </c>
       <c r="R11" t="n">
-        <v>7100208</v>
+        <v>7100686</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1748,32 +1748,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>125173960</v>
+        <v>125173951</v>
       </c>
       <c r="B12" t="n">
-        <v>91245</v>
+        <v>91210</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>697233</v>
+        <v>697318</v>
       </c>
       <c r="R12" t="n">
-        <v>7100331</v>
+        <v>7099916</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1942,32 +1942,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>125173995</v>
+        <v>125174119</v>
       </c>
       <c r="B14" t="n">
-        <v>91195</v>
+        <v>80118</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>112</v>
+        <v>6463</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>697391</v>
+        <v>697122</v>
       </c>
       <c r="R14" t="n">
-        <v>7100055</v>
+        <v>7100444</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2023,6 +2023,21 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2039,45 +2054,61 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>125174065</v>
+        <v>125173963</v>
       </c>
       <c r="B15" t="n">
-        <v>80119</v>
+        <v>57657</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>697385</v>
+        <v>697383</v>
       </c>
       <c r="R15" t="n">
-        <v>7099981</v>
+        <v>7100002</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2120,21 +2151,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2151,32 +2167,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>125173980</v>
+        <v>125174018</v>
       </c>
       <c r="B16" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2186,10 +2202,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>697377</v>
+        <v>696798</v>
       </c>
       <c r="R16" t="n">
-        <v>7099952</v>
+        <v>7100498</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2235,17 +2251,17 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2263,10 +2279,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>125174119</v>
+        <v>125173980</v>
       </c>
       <c r="B17" t="n">
-        <v>80118</v>
+        <v>80112</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2274,21 +2290,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2298,10 +2314,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>697122</v>
+        <v>697377</v>
       </c>
       <c r="R17" t="n">
-        <v>7100444</v>
+        <v>7099952</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2375,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>125174018</v>
+        <v>125173995</v>
       </c>
       <c r="B18" t="n">
-        <v>80083</v>
+        <v>91195</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2386,21 +2402,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>112</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2410,10 +2426,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>696798</v>
+        <v>697391</v>
       </c>
       <c r="R18" t="n">
-        <v>7100498</v>
+        <v>7100055</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2456,21 +2472,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2487,10 +2488,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>125173951</v>
+        <v>125174065</v>
       </c>
       <c r="B19" t="n">
-        <v>91210</v>
+        <v>80119</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2498,21 +2499,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>6464</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2522,10 +2523,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>697318</v>
+        <v>697385</v>
       </c>
       <c r="R19" t="n">
-        <v>7099916</v>
+        <v>7099981</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2568,6 +2569,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2793,10 +2809,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>125173963</v>
+        <v>125173960</v>
       </c>
       <c r="B22" t="n">
-        <v>57657</v>
+        <v>91245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2804,50 +2820,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>697383</v>
+        <v>697233</v>
       </c>
       <c r="R22" t="n">
-        <v>7100002</v>
+        <v>7100331</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>125173961</v>
+        <v>125174051</v>
       </c>
       <c r="B23" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2917,21 +2917,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>697376</v>
+        <v>696757</v>
       </c>
       <c r="R23" t="n">
-        <v>7100080</v>
+        <v>7100544</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>125174051</v>
+        <v>125174042</v>
       </c>
       <c r="B25" t="n">
         <v>80083</v>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>696757</v>
+        <v>696806</v>
       </c>
       <c r="R25" t="n">
-        <v>7100544</v>
+        <v>7100461</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>125174042</v>
+        <v>125174034</v>
       </c>
       <c r="B27" t="n">
         <v>80083</v>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>696806</v>
+        <v>696969</v>
       </c>
       <c r="R27" t="n">
-        <v>7100461</v>
+        <v>7100455</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>125174034</v>
+        <v>125173961</v>
       </c>
       <c r="B29" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3499,21 +3499,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>696969</v>
+        <v>697376</v>
       </c>
       <c r="R29" t="n">
-        <v>7100455</v>
+        <v>7100080</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16944659</v>
+        <v>16944666</v>
       </c>
       <c r="B30" t="n">
         <v>80083</v>
@@ -3620,10 +3620,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>697216</v>
+        <v>697230</v>
       </c>
       <c r="R30" t="n">
-        <v>7100234</v>
+        <v>7100208</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3669,17 +3669,17 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16944666</v>
+        <v>16944659</v>
       </c>
       <c r="B31" t="n">
         <v>80083</v>
@@ -3732,10 +3732,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>697230</v>
+        <v>697216</v>
       </c>
       <c r="R31" t="n">
-        <v>7100208</v>
+        <v>7100234</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3781,17 +3781,17 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>126313437</v>
+        <v>125174061</v>
       </c>
       <c r="B33" t="n">
-        <v>57657</v>
+        <v>80083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3917,39 +3917,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>697221</v>
+        <v>697333</v>
       </c>
       <c r="R33" t="n">
-        <v>7099935</v>
+        <v>7099890</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3976,12 +3971,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3992,46 +3987,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>Färska ringhack</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Färska ringhack</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>126313436</v>
+        <v>125174107</v>
       </c>
       <c r="B34" t="n">
-        <v>57657</v>
+        <v>78980</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4039,39 +4014,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>697344</v>
+        <v>697217</v>
       </c>
       <c r="R34" t="n">
-        <v>7099931</v>
+        <v>7100273</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4098,12 +4068,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4114,43 +4084,23 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>Ringhack på levande gran</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies # Ringhack på levande gran</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>126313449</v>
+        <v>125174035</v>
       </c>
       <c r="B35" t="n">
         <v>80083</v>
@@ -4185,10 +4135,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>696836</v>
+        <v>696909</v>
       </c>
       <c r="R35" t="n">
-        <v>7100356</v>
+        <v>7100484</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4215,12 +4165,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4231,36 +4181,16 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>Knäckt sälg i fuktdråg</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Salix caprea # Knäckt sälg i fuktdråg</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
@@ -4364,10 +4294,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>125174061</v>
+        <v>126313465</v>
       </c>
       <c r="B37" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4375,21 +4305,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4399,10 +4329,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>697333</v>
+        <v>696751</v>
       </c>
       <c r="R37" t="n">
-        <v>7099890</v>
+        <v>7100377</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4429,12 +4359,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4449,22 +4379,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>125174107</v>
+        <v>126313436</v>
       </c>
       <c r="B38" t="n">
-        <v>78980</v>
+        <v>57657</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4472,34 +4402,39 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>697217</v>
+        <v>697344</v>
       </c>
       <c r="R38" t="n">
-        <v>7100273</v>
+        <v>7099931</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4526,12 +4461,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4542,23 +4477,43 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Ringhack på levande gran</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Picea abies # Ringhack på levande gran</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>125174035</v>
+        <v>126313449</v>
       </c>
       <c r="B39" t="n">
         <v>80083</v>
@@ -4593,10 +4548,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>696909</v>
+        <v>696836</v>
       </c>
       <c r="R39" t="n">
-        <v>7100484</v>
+        <v>7100356</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4623,12 +4578,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4639,26 +4594,46 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>Knäckt sälg i fuktdråg</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Salix caprea # Knäckt sälg i fuktdråg</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>126313465</v>
+        <v>126313437</v>
       </c>
       <c r="B40" t="n">
-        <v>78980</v>
+        <v>57657</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4666,34 +4641,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>696751</v>
+        <v>697221</v>
       </c>
       <c r="R40" t="n">
-        <v>7100377</v>
+        <v>7099935</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -4736,6 +4716,26 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Färska ringhack</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Färska ringhack</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -4849,10 +4849,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>125174091</v>
+        <v>125174015</v>
       </c>
       <c r="B42" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4860,21 +4860,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>697219</v>
+        <v>696812</v>
       </c>
       <c r="R42" t="n">
-        <v>7100263</v>
+        <v>7100474</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -4930,6 +4930,21 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5140,10 +5155,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>125174055</v>
+        <v>125174101</v>
       </c>
       <c r="B45" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5151,21 +5166,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5175,10 +5190,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>696908</v>
+        <v>697464</v>
       </c>
       <c r="R45" t="n">
-        <v>7100531</v>
+        <v>7100169</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5221,6 +5236,21 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -5237,10 +5267,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>125174015</v>
+        <v>125174091</v>
       </c>
       <c r="B46" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5248,21 +5278,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5272,10 +5302,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>696812</v>
+        <v>697219</v>
       </c>
       <c r="R46" t="n">
-        <v>7100474</v>
+        <v>7100263</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5318,21 +5348,6 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
@@ -5349,10 +5364,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>125174101</v>
+        <v>125174080</v>
       </c>
       <c r="B47" t="n">
-        <v>78980</v>
+        <v>56840</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5360,34 +5375,43 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>697464</v>
+        <v>697197</v>
       </c>
       <c r="R47" t="n">
-        <v>7100169</v>
+        <v>7100428</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5430,21 +5454,6 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -5573,10 +5582,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>125174080</v>
+        <v>125174055</v>
       </c>
       <c r="B49" t="n">
-        <v>56840</v>
+        <v>80083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5584,43 +5593,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>102612</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>697197</v>
+        <v>696908</v>
       </c>
       <c r="R49" t="n">
-        <v>7100428</v>
+        <v>7100531</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>125174029</v>
+        <v>125174033</v>
       </c>
       <c r="B52" t="n">
         <v>80083</v>
@@ -5938,10 +5938,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>697365</v>
+        <v>697007</v>
       </c>
       <c r="R52" t="n">
-        <v>7099907</v>
+        <v>7100392</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5984,21 +5984,6 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6015,32 +6000,32 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>125173989</v>
+        <v>125174029</v>
       </c>
       <c r="B53" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6050,10 +6035,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>697344</v>
+        <v>697365</v>
       </c>
       <c r="R53" t="n">
-        <v>7100036</v>
+        <v>7099907</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6096,6 +6081,21 @@
       </c>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
@@ -6112,10 +6112,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>125173987</v>
+        <v>125174116</v>
       </c>
       <c r="B54" t="n">
-        <v>80112</v>
+        <v>80118</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6123,21 +6123,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6147,10 +6147,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>696928</v>
+        <v>697400</v>
       </c>
       <c r="R54" t="n">
-        <v>7100550</v>
+        <v>7100102</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6209,35 +6209,44 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>125174116</v>
+        <v>125173970</v>
       </c>
       <c r="B55" t="n">
-        <v>80118</v>
+        <v>58138</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6463</v>
+        <v>103018</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Ficedula hypoleuca</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>(Pallas, 1764)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
@@ -6247,7 +6256,7 @@
         <v>697400</v>
       </c>
       <c r="R55" t="n">
-        <v>7100102</v>
+        <v>7100065</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6306,7 +6315,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>125173978</v>
+        <v>125173987</v>
       </c>
       <c r="B56" t="n">
         <v>80112</v>
@@ -6341,10 +6350,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>697341</v>
+        <v>696928</v>
       </c>
       <c r="R56" t="n">
-        <v>7100020</v>
+        <v>7100550</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6387,21 +6396,6 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
@@ -6418,32 +6412,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>125174046</v>
+        <v>125173978</v>
       </c>
       <c r="B57" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6453,10 +6447,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>696811</v>
+        <v>697341</v>
       </c>
       <c r="R57" t="n">
-        <v>7100494</v>
+        <v>7100020</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6499,6 +6493,21 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
@@ -6515,7 +6524,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>125174033</v>
+        <v>125174046</v>
       </c>
       <c r="B58" t="n">
         <v>80083</v>
@@ -6550,10 +6559,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>697007</v>
+        <v>696811</v>
       </c>
       <c r="R58" t="n">
-        <v>7100392</v>
+        <v>7100494</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -6612,54 +6621,45 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>125173970</v>
+        <v>125173989</v>
       </c>
       <c r="B59" t="n">
-        <v>58138</v>
+        <v>80112</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103018</v>
+        <v>6462</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ficedula hypoleuca</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Pallas, 1764)</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>697400</v>
+        <v>697344</v>
       </c>
       <c r="R59" t="n">
-        <v>7100065</v>
+        <v>7100036</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7048,10 +7048,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>125174082</v>
+        <v>125174113</v>
       </c>
       <c r="B63" t="n">
-        <v>91241</v>
+        <v>78980</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7059,21 +7059,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>696822</v>
+        <v>697340</v>
       </c>
       <c r="R63" t="n">
-        <v>7100553</v>
+        <v>7100105</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -7145,32 +7145,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>125174113</v>
+        <v>125173954</v>
       </c>
       <c r="B64" t="n">
-        <v>78980</v>
+        <v>91210</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7180,10 +7180,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>697340</v>
+        <v>697281</v>
       </c>
       <c r="R64" t="n">
-        <v>7100105</v>
+        <v>7099991</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -7242,10 +7242,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>125174027</v>
+        <v>125174082</v>
       </c>
       <c r="B65" t="n">
-        <v>80083</v>
+        <v>91241</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7253,21 +7253,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7277,10 +7277,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>697224</v>
+        <v>696822</v>
       </c>
       <c r="R65" t="n">
-        <v>7099960</v>
+        <v>7100553</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -7323,21 +7323,6 @@
       </c>
       <c r="AG65" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ65" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK65" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO65" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
@@ -7354,32 +7339,32 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>125173954</v>
+        <v>125174027</v>
       </c>
       <c r="B66" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7389,10 +7374,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>697281</v>
+        <v>697224</v>
       </c>
       <c r="R66" t="n">
-        <v>7099991</v>
+        <v>7099960</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -7435,6 +7420,21 @@
       </c>
       <c r="AG66" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
@@ -7557,10 +7557,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>125173958</v>
+        <v>125174020</v>
       </c>
       <c r="B68" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7568,21 +7568,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7592,10 +7592,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>696870</v>
+        <v>697380</v>
       </c>
       <c r="R68" t="n">
-        <v>7100609</v>
+        <v>7099989</v>
       </c>
       <c r="S68" t="n">
         <v>5</v>
@@ -7638,6 +7638,21 @@
       </c>
       <c r="AG68" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -7654,10 +7669,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>125174020</v>
+        <v>125174078</v>
       </c>
       <c r="B69" t="n">
-        <v>80083</v>
+        <v>78739</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7665,21 +7680,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7689,10 +7704,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>697380</v>
+        <v>697225</v>
       </c>
       <c r="R69" t="n">
-        <v>7099989</v>
+        <v>7100095</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
@@ -7735,21 +7750,6 @@
       </c>
       <c r="AG69" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -7878,10 +7878,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>125174078</v>
+        <v>125173958</v>
       </c>
       <c r="B71" t="n">
-        <v>78739</v>
+        <v>91245</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7889,21 +7889,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7913,10 +7913,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>697225</v>
+        <v>696870</v>
       </c>
       <c r="R71" t="n">
-        <v>7100095</v>
+        <v>7100609</v>
       </c>
       <c r="S71" t="n">
         <v>5</v>
@@ -7975,10 +7975,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>56623319</v>
+        <v>56623329</v>
       </c>
       <c r="B72" t="n">
-        <v>79516</v>
+        <v>79012</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7986,21 +7986,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1352</v>
+        <v>185</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Småflikig brosklav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ramalina sinensis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Jatta</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8010,13 +8010,13 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>697289</v>
+        <v>697110</v>
       </c>
       <c r="R72" t="n">
-        <v>7100118</v>
+        <v>7100060</v>
       </c>
       <c r="S72" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>56623329</v>
+        <v>56623319</v>
       </c>
       <c r="B73" t="n">
-        <v>79012</v>
+        <v>79516</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8088,21 +8088,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>185</v>
+        <v>1352</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Småflikig brosklav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Ramalina sinensis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>Jatta</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>697110</v>
+        <v>697289</v>
       </c>
       <c r="R73" t="n">
-        <v>7100060</v>
+        <v>7100118</v>
       </c>
       <c r="S73" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -8179,48 +8179,48 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>126380584</v>
+        <v>125173974</v>
       </c>
       <c r="B74" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Västerås, Ång</t>
+          <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>697382</v>
+        <v>696856</v>
       </c>
       <c r="R74" t="n">
-        <v>7099988</v>
+        <v>7100650</v>
       </c>
       <c r="S74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8244,12 +8244,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8279,44 +8279,44 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>125173950</v>
+        <v>125174040</v>
       </c>
       <c r="B75" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8326,10 +8326,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>697356</v>
+        <v>696832</v>
       </c>
       <c r="R75" t="n">
-        <v>7100150</v>
+        <v>7100425</v>
       </c>
       <c r="S75" t="n">
         <v>5</v>
@@ -8388,32 +8388,32 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>125174071</v>
+        <v>125174023</v>
       </c>
       <c r="B76" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8423,10 +8423,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>696795</v>
+        <v>696964</v>
       </c>
       <c r="R76" t="n">
-        <v>7100474</v>
+        <v>7100364</v>
       </c>
       <c r="S76" t="n">
         <v>5</v>
@@ -8469,6 +8469,21 @@
       </c>
       <c r="AG76" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
@@ -8485,10 +8500,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>125173972</v>
+        <v>125174071</v>
       </c>
       <c r="B77" t="n">
-        <v>80112</v>
+        <v>80119</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8496,21 +8511,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8520,10 +8535,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>697004</v>
+        <v>696795</v>
       </c>
       <c r="R77" t="n">
-        <v>7100506</v>
+        <v>7100474</v>
       </c>
       <c r="S77" t="n">
         <v>5</v>
@@ -8582,32 +8597,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>125174057</v>
+        <v>125173950</v>
       </c>
       <c r="B78" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8617,10 +8632,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>697236</v>
+        <v>697356</v>
       </c>
       <c r="R78" t="n">
-        <v>7100408</v>
+        <v>7100150</v>
       </c>
       <c r="S78" t="n">
         <v>5</v>
@@ -8679,32 +8694,32 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>125174108</v>
+        <v>125173972</v>
       </c>
       <c r="B79" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8714,10 +8729,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>697225</v>
+        <v>697004</v>
       </c>
       <c r="R79" t="n">
-        <v>7100135</v>
+        <v>7100506</v>
       </c>
       <c r="S79" t="n">
         <v>5</v>
@@ -8776,7 +8791,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>125174023</v>
+        <v>125174014</v>
       </c>
       <c r="B80" t="n">
         <v>80083</v>
@@ -8811,10 +8826,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>696964</v>
+        <v>696820</v>
       </c>
       <c r="R80" t="n">
-        <v>7100364</v>
+        <v>7100397</v>
       </c>
       <c r="S80" t="n">
         <v>5</v>
@@ -8860,17 +8875,17 @@
       </c>
       <c r="AJ80" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK80" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -8888,10 +8903,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>125174014</v>
+        <v>125174108</v>
       </c>
       <c r="B81" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8899,21 +8914,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8923,10 +8938,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>696820</v>
+        <v>697225</v>
       </c>
       <c r="R81" t="n">
-        <v>7100397</v>
+        <v>7100135</v>
       </c>
       <c r="S81" t="n">
         <v>5</v>
@@ -8969,21 +8984,6 @@
       </c>
       <c r="AG81" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
@@ -9000,32 +9000,32 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>125173974</v>
+        <v>125174057</v>
       </c>
       <c r="B82" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>696856</v>
+        <v>697236</v>
       </c>
       <c r="R82" t="n">
-        <v>7100650</v>
+        <v>7100408</v>
       </c>
       <c r="S82" t="n">
         <v>5</v>
@@ -9081,21 +9081,6 @@
       </c>
       <c r="AG82" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ82" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK82" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO82" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
@@ -9112,7 +9097,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>125174040</v>
+        <v>126380584</v>
       </c>
       <c r="B83" t="n">
         <v>80083</v>
@@ -9143,17 +9128,17 @@
       <c r="I83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Orratjärnkullen, Ång</t>
+          <t>Västerås, Ång</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>696832</v>
+        <v>697382</v>
       </c>
       <c r="R83" t="n">
-        <v>7100425</v>
+        <v>7099988</v>
       </c>
       <c r="S83" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -9177,12 +9162,12 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9193,16 +9178,31 @@
       </c>
       <c r="AG83" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO83" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
@@ -9306,32 +9306,32 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>125173981</v>
+        <v>126313453</v>
       </c>
       <c r="B85" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9341,10 +9341,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>696809</v>
+        <v>696848</v>
       </c>
       <c r="R85" t="n">
-        <v>7100403</v>
+        <v>7100320</v>
       </c>
       <c r="S85" t="n">
         <v>5</v>
@@ -9371,12 +9371,12 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9387,26 +9387,41 @@
       </c>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>125174089</v>
+        <v>126313464</v>
       </c>
       <c r="B86" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9414,21 +9429,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9438,10 +9453,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>696871</v>
+        <v>696928</v>
       </c>
       <c r="R86" t="n">
-        <v>7100581</v>
+        <v>7100192</v>
       </c>
       <c r="S86" t="n">
         <v>5</v>
@@ -9468,12 +9483,12 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9484,26 +9499,46 @@
       </c>
       <c r="AG86" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>Död, tunn stam</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Död, tunn stam</t>
+        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>126313461</v>
+        <v>126313463</v>
       </c>
       <c r="B87" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9511,21 +9546,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9535,10 +9570,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>697437</v>
+        <v>696876</v>
       </c>
       <c r="R87" t="n">
-        <v>7099656</v>
+        <v>7100266</v>
       </c>
       <c r="S87" t="n">
         <v>5</v>
@@ -9584,22 +9619,17 @@
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL87" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr"/>
@@ -9617,10 +9647,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>125173957</v>
+        <v>126313461</v>
       </c>
       <c r="B88" t="n">
-        <v>91245</v>
+        <v>91263</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9628,21 +9658,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9652,10 +9682,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>696880</v>
+        <v>697437</v>
       </c>
       <c r="R88" t="n">
-        <v>7100627</v>
+        <v>7099656</v>
       </c>
       <c r="S88" t="n">
         <v>5</v>
@@ -9682,12 +9712,12 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -9698,26 +9728,46 @@
       </c>
       <c r="AG88" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>126313464</v>
+        <v>125174089</v>
       </c>
       <c r="B89" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9725,21 +9775,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9749,10 +9799,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>696928</v>
+        <v>696871</v>
       </c>
       <c r="R89" t="n">
-        <v>7100192</v>
+        <v>7100581</v>
       </c>
       <c r="S89" t="n">
         <v>5</v>
@@ -9779,12 +9829,12 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -9795,68 +9845,48 @@
       </c>
       <c r="AG89" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ89" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK89" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL89" t="inlineStr">
-        <is>
-          <t>Död, tunn stam</t>
-        </is>
-      </c>
-      <c r="AO89" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Död, tunn stam</t>
-        </is>
       </c>
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>126313463</v>
+        <v>125173981</v>
       </c>
       <c r="B90" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -9866,10 +9896,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>696876</v>
+        <v>696809</v>
       </c>
       <c r="R90" t="n">
-        <v>7100266</v>
+        <v>7100403</v>
       </c>
       <c r="S90" t="n">
         <v>5</v>
@@ -9896,12 +9926,12 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -9912,41 +9942,26 @@
       </c>
       <c r="AG90" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ90" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK90" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO90" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>126313453</v>
+        <v>125173957</v>
       </c>
       <c r="B91" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9954,21 +9969,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9978,10 +9993,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>696848</v>
+        <v>696880</v>
       </c>
       <c r="R91" t="n">
-        <v>7100320</v>
+        <v>7100627</v>
       </c>
       <c r="S91" t="n">
         <v>5</v>
@@ -10008,12 +10023,12 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10024,31 +10039,16 @@
       </c>
       <c r="AG91" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ91" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK91" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO91" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>125174045</v>
+        <v>125174032</v>
       </c>
       <c r="B93" t="n">
         <v>80083</v>
@@ -10187,10 +10187,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>696765</v>
+        <v>697013</v>
       </c>
       <c r="R93" t="n">
-        <v>7100501</v>
+        <v>7100389</v>
       </c>
       <c r="S93" t="n">
         <v>5</v>
@@ -10249,32 +10249,32 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>125173977</v>
+        <v>125174045</v>
       </c>
       <c r="B94" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10284,10 +10284,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>697260</v>
+        <v>696765</v>
       </c>
       <c r="R94" t="n">
-        <v>7099966</v>
+        <v>7100501</v>
       </c>
       <c r="S94" t="n">
         <v>5</v>
@@ -10330,21 +10330,6 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO94" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
@@ -10361,32 +10346,32 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>125174032</v>
+        <v>125174066</v>
       </c>
       <c r="B95" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10396,10 +10381,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>697013</v>
+        <v>697416</v>
       </c>
       <c r="R95" t="n">
-        <v>7100389</v>
+        <v>7100143</v>
       </c>
       <c r="S95" t="n">
         <v>5</v>
@@ -10442,6 +10427,21 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
@@ -10458,10 +10458,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>125174066</v>
+        <v>125174120</v>
       </c>
       <c r="B96" t="n">
-        <v>80119</v>
+        <v>80118</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10469,21 +10469,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10493,10 +10493,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>697416</v>
+        <v>697167</v>
       </c>
       <c r="R96" t="n">
-        <v>7100143</v>
+        <v>7100415</v>
       </c>
       <c r="S96" t="n">
         <v>5</v>
@@ -10542,17 +10542,17 @@
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK96" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT96" t="inlineStr"/>
@@ -10570,32 +10570,32 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>125174053</v>
+        <v>125173977</v>
       </c>
       <c r="B97" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10605,10 +10605,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>696839</v>
+        <v>697260</v>
       </c>
       <c r="R97" t="n">
-        <v>7100595</v>
+        <v>7099966</v>
       </c>
       <c r="S97" t="n">
         <v>5</v>
@@ -10651,6 +10651,21 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
@@ -10667,32 +10682,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>125174120</v>
+        <v>125174053</v>
       </c>
       <c r="B98" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -10702,10 +10717,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>697167</v>
+        <v>696839</v>
       </c>
       <c r="R98" t="n">
-        <v>7100415</v>
+        <v>7100595</v>
       </c>
       <c r="S98" t="n">
         <v>5</v>
@@ -10748,21 +10763,6 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ98" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
@@ -11105,32 +11105,32 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>125174079</v>
+        <v>125174059</v>
       </c>
       <c r="B102" t="n">
-        <v>98361</v>
+        <v>80083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11140,10 +11140,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>697060</v>
+        <v>697369</v>
       </c>
       <c r="R102" t="n">
-        <v>7100461</v>
+        <v>7100092</v>
       </c>
       <c r="S102" t="n">
         <v>5</v>
@@ -11202,10 +11202,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>126313448</v>
+        <v>125174100</v>
       </c>
       <c r="B103" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11213,21 +11213,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11237,10 +11237,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>696833</v>
+        <v>697310</v>
       </c>
       <c r="R103" t="n">
-        <v>7100390</v>
+        <v>7099964</v>
       </c>
       <c r="S103" t="n">
         <v>5</v>
@@ -11267,12 +11267,12 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11283,43 +11283,23 @@
       </c>
       <c r="AG103" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ103" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK103" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL103" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
-      <c r="AO103" t="inlineStr">
-        <is>
-          <t>Salix caprea # Rikligt</t>
-        </is>
       </c>
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>125174059</v>
+        <v>125174017</v>
       </c>
       <c r="B104" t="n">
         <v>80083</v>
@@ -11354,10 +11334,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>697369</v>
+        <v>696783</v>
       </c>
       <c r="R104" t="n">
-        <v>7100092</v>
+        <v>7100481</v>
       </c>
       <c r="S104" t="n">
         <v>5</v>
@@ -11400,6 +11380,21 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ104" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK104" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO104" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
@@ -11416,10 +11411,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>125174100</v>
+        <v>125174036</v>
       </c>
       <c r="B105" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11427,21 +11422,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -11451,10 +11446,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>697310</v>
+        <v>696916</v>
       </c>
       <c r="R105" t="n">
-        <v>7099964</v>
+        <v>7100475</v>
       </c>
       <c r="S105" t="n">
         <v>5</v>
@@ -11625,10 +11620,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>125174036</v>
+        <v>125174097</v>
       </c>
       <c r="B107" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11636,21 +11631,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -11660,10 +11655,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>696916</v>
+        <v>697365</v>
       </c>
       <c r="R107" t="n">
-        <v>7100475</v>
+        <v>7100060</v>
       </c>
       <c r="S107" t="n">
         <v>5</v>
@@ -11722,32 +11717,32 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>125174097</v>
+        <v>125174079</v>
       </c>
       <c r="B108" t="n">
-        <v>91263</v>
+        <v>98361</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -11757,10 +11752,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>697365</v>
+        <v>697060</v>
       </c>
       <c r="R108" t="n">
-        <v>7100060</v>
+        <v>7100461</v>
       </c>
       <c r="S108" t="n">
         <v>5</v>
@@ -11819,10 +11814,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>125174017</v>
+        <v>125174088</v>
       </c>
       <c r="B109" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11830,21 +11825,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -11854,10 +11849,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>696783</v>
+        <v>696793</v>
       </c>
       <c r="R109" t="n">
-        <v>7100481</v>
+        <v>7100497</v>
       </c>
       <c r="S109" t="n">
         <v>5</v>
@@ -11900,21 +11895,6 @@
       </c>
       <c r="AG109" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ109" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK109" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO109" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
@@ -11931,10 +11911,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125174088</v>
+        <v>126313448</v>
       </c>
       <c r="B110" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11942,21 +11922,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -11966,10 +11946,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>696793</v>
+        <v>696833</v>
       </c>
       <c r="R110" t="n">
-        <v>7100497</v>
+        <v>7100390</v>
       </c>
       <c r="S110" t="n">
         <v>5</v>
@@ -11996,12 +11976,12 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12012,16 +11992,36 @@
       </c>
       <c r="AG110" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ110" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK110" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL110" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
+      <c r="AO110" t="inlineStr">
+        <is>
+          <t>Salix caprea # Rikligt</t>
+        </is>
       </c>
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
@@ -12140,27 +12140,27 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>126313434</v>
+        <v>125174076</v>
       </c>
       <c r="B112" t="n">
-        <v>57657</v>
+        <v>58027</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100109</v>
+        <v>103015</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -12168,17 +12168,26 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>697322</v>
+        <v>697418</v>
       </c>
       <c r="R112" t="n">
-        <v>7099950</v>
+        <v>7100124</v>
       </c>
       <c r="S112" t="n">
         <v>5</v>
@@ -12205,12 +12214,12 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12221,68 +12230,48 @@
       </c>
       <c r="AG112" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ112" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK112" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL112" t="inlineStr">
-        <is>
-          <t>Ringhack lågt ned på stammen</t>
-        </is>
-      </c>
-      <c r="AO112" t="inlineStr">
-        <is>
-          <t>Picea abies # Ringhack lågt ned på stammen</t>
-        </is>
       </c>
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>125173988</v>
+        <v>125174022</v>
       </c>
       <c r="B113" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -12292,10 +12281,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>697287</v>
+        <v>697411</v>
       </c>
       <c r="R113" t="n">
-        <v>7100154</v>
+        <v>7100109</v>
       </c>
       <c r="S113" t="n">
         <v>5</v>
@@ -12338,6 +12327,21 @@
       </c>
       <c r="AG113" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK113" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO113" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
@@ -12354,32 +12358,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>125174022</v>
+        <v>125173986</v>
       </c>
       <c r="B114" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -12389,10 +12393,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>697411</v>
+        <v>696918</v>
       </c>
       <c r="R114" t="n">
-        <v>7100109</v>
+        <v>7100545</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -12435,21 +12439,6 @@
       </c>
       <c r="AG114" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ114" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK114" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO114" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
@@ -12466,7 +12455,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>125173986</v>
+        <v>125173988</v>
       </c>
       <c r="B115" t="n">
         <v>80112</v>
@@ -12501,10 +12490,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>696918</v>
+        <v>697287</v>
       </c>
       <c r="R115" t="n">
-        <v>7100545</v>
+        <v>7100154</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -12563,27 +12552,27 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>125174076</v>
+        <v>126313434</v>
       </c>
       <c r="B116" t="n">
-        <v>58027</v>
+        <v>57657</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>103015</v>
+        <v>100109</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -12591,26 +12580,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>697418</v>
+        <v>697322</v>
       </c>
       <c r="R116" t="n">
-        <v>7100124</v>
+        <v>7099950</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -12637,12 +12617,12 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -12653,16 +12633,36 @@
       </c>
       <c r="AG116" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL116" t="inlineStr">
+        <is>
+          <t>Ringhack lågt ned på stammen</t>
+        </is>
+      </c>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t>Picea abies # Ringhack lågt ned på stammen</t>
+        </is>
       </c>
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -12781,10 +12781,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>125174026</v>
+        <v>126313462</v>
       </c>
       <c r="B118" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12792,21 +12792,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -12816,10 +12816,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>697239</v>
+        <v>697092</v>
       </c>
       <c r="R118" t="n">
-        <v>7100383</v>
+        <v>7100015</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -12846,12 +12846,12 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD118" t="b">
@@ -12865,38 +12865,43 @@
       </c>
       <c r="AJ118" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK118" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL118" t="inlineStr">
+        <is>
+          <t>Äldre tall</t>
         </is>
       </c>
       <c r="AO118" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Pinus sylvestris # Äldre tall</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>125174093</v>
+        <v>126313440</v>
       </c>
       <c r="B119" t="n">
-        <v>91263</v>
+        <v>57817</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12904,34 +12909,43 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5432</v>
+        <v>103021</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P119" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>697243</v>
+        <v>696893</v>
       </c>
       <c r="R119" t="n">
-        <v>7100187</v>
+        <v>7099878</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -12958,12 +12972,12 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -12978,44 +12992,44 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>125174102</v>
+        <v>126313432</v>
       </c>
       <c r="B120" t="n">
-        <v>78980</v>
+        <v>91210</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13025,10 +13039,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>696903</v>
+        <v>697315</v>
       </c>
       <c r="R120" t="n">
-        <v>7100539</v>
+        <v>7099952</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -13055,12 +13069,12 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13074,60 +13088,65 @@
       </c>
       <c r="AJ120" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK120" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL120" t="inlineStr">
+        <is>
+          <t>Granlåga, tunnare mossbevuxen</t>
         </is>
       </c>
       <c r="AO120" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies # Granlåga, tunnare mossbevuxen</t>
         </is>
       </c>
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>125173985</v>
+        <v>125174039</v>
       </c>
       <c r="B121" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -13137,10 +13156,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>696780</v>
+        <v>696809</v>
       </c>
       <c r="R121" t="n">
-        <v>7100506</v>
+        <v>7100408</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -13199,32 +13218,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>125174047</v>
+        <v>125173985</v>
       </c>
       <c r="B122" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13234,10 +13253,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>696795</v>
+        <v>696780</v>
       </c>
       <c r="R122" t="n">
-        <v>7100500</v>
+        <v>7100506</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -13296,7 +13315,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>125174039</v>
+        <v>125174026</v>
       </c>
       <c r="B123" t="n">
         <v>80083</v>
@@ -13331,10 +13350,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>696809</v>
+        <v>697239</v>
       </c>
       <c r="R123" t="n">
-        <v>7100408</v>
+        <v>7100383</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -13377,6 +13396,21 @@
       </c>
       <c r="AG123" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK123" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO123" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
@@ -13393,7 +13427,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>125174099</v>
+        <v>125174093</v>
       </c>
       <c r="B124" t="n">
         <v>91263</v>
@@ -13428,10 +13462,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>697429</v>
+        <v>697243</v>
       </c>
       <c r="R124" t="n">
-        <v>7100137</v>
+        <v>7100187</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -13490,32 +13524,32 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>126313432</v>
+        <v>125174102</v>
       </c>
       <c r="B125" t="n">
-        <v>91210</v>
+        <v>78980</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -13525,10 +13559,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>697315</v>
+        <v>696903</v>
       </c>
       <c r="R125" t="n">
-        <v>7099952</v>
+        <v>7100539</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -13555,12 +13589,12 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -13574,43 +13608,38 @@
       </c>
       <c r="AJ125" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL125" t="inlineStr">
-        <is>
-          <t>Granlåga, tunnare mossbevuxen</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO125" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga, tunnare mossbevuxen</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>126313462</v>
+        <v>125174099</v>
       </c>
       <c r="B126" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13618,21 +13647,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -13642,10 +13671,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>697092</v>
+        <v>697429</v>
       </c>
       <c r="R126" t="n">
-        <v>7100015</v>
+        <v>7100137</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -13672,12 +13701,12 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -13688,46 +13717,26 @@
       </c>
       <c r="AG126" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ126" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK126" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL126" t="inlineStr">
-        <is>
-          <t>Äldre tall</t>
-        </is>
-      </c>
-      <c r="AO126" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Äldre tall</t>
-        </is>
       </c>
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>126313440</v>
+        <v>125174047</v>
       </c>
       <c r="B127" t="n">
-        <v>57817</v>
+        <v>80083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13735,43 +13744,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>696893</v>
+        <v>696795</v>
       </c>
       <c r="R127" t="n">
-        <v>7099878</v>
+        <v>7100500</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>
@@ -13798,12 +13798,12 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -13818,12 +13818,12 @@
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
@@ -13942,53 +13942,45 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>125173967</v>
+        <v>126313450</v>
       </c>
       <c r="B129" t="n">
-        <v>56849</v>
+        <v>80083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>100138</v>
+        <v>6458</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>697222</v>
+        <v>696834</v>
       </c>
       <c r="R129" t="n">
-        <v>7099985</v>
+        <v>7100347</v>
       </c>
       <c r="S129" t="n">
         <v>5</v>
@@ -14015,12 +14007,12 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14031,23 +14023,43 @@
       </c>
       <c r="AG129" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK129" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL129" t="inlineStr">
+        <is>
+          <t>Knäckt sälg</t>
+        </is>
+      </c>
+      <c r="AO129" t="inlineStr">
+        <is>
+          <t>Salix caprea # Knäckt sälg</t>
+        </is>
       </c>
       <c r="AT129" t="inlineStr"/>
       <c r="AW129" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>125173968</v>
+        <v>125173967</v>
       </c>
       <c r="B130" t="n">
         <v>56849</v>
@@ -14090,10 +14102,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>697296</v>
+        <v>697222</v>
       </c>
       <c r="R130" t="n">
-        <v>7100057</v>
+        <v>7099985</v>
       </c>
       <c r="S130" t="n">
         <v>5</v>
@@ -14152,10 +14164,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>125174075</v>
+        <v>125173968</v>
       </c>
       <c r="B131" t="n">
-        <v>58027</v>
+        <v>56849</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -14163,43 +14175,42 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>103015</v>
+        <v>100138</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>697312</v>
+        <v>697296</v>
       </c>
       <c r="R131" t="n">
-        <v>7099965</v>
+        <v>7100057</v>
       </c>
       <c r="S131" t="n">
         <v>5</v>
@@ -14355,10 +14366,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>125173975</v>
+        <v>125174075</v>
       </c>
       <c r="B133" t="n">
-        <v>80112</v>
+        <v>58027</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -14366,34 +14377,43 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6462</v>
+        <v>103015</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>697414</v>
+        <v>697312</v>
       </c>
       <c r="R133" t="n">
-        <v>7100139</v>
+        <v>7099965</v>
       </c>
       <c r="S133" t="n">
         <v>5</v>
@@ -14436,21 +14456,6 @@
       </c>
       <c r="AG133" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ133" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK133" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO133" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT133" t="inlineStr"/>
       <c r="AW133" t="inlineStr">
@@ -14661,32 +14666,32 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>126313450</v>
+        <v>125173975</v>
       </c>
       <c r="B136" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -14696,10 +14701,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>696834</v>
+        <v>697414</v>
       </c>
       <c r="R136" t="n">
-        <v>7100347</v>
+        <v>7100139</v>
       </c>
       <c r="S136" t="n">
         <v>5</v>
@@ -14726,12 +14731,12 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD136" t="b">
@@ -14745,33 +14750,28 @@
       </c>
       <c r="AJ136" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK136" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL136" t="inlineStr">
-        <is>
-          <t>Knäckt sälg</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO136" t="inlineStr">
         <is>
-          <t>Salix caprea # Knäckt sälg</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
       <c r="AW136" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX136" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY136" t="inlineStr"/>
@@ -14875,10 +14875,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>125174069</v>
+        <v>125173976</v>
       </c>
       <c r="B138" t="n">
-        <v>80119</v>
+        <v>80112</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14886,21 +14886,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6464</v>
+        <v>6462</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -14910,10 +14910,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>697262</v>
+        <v>697239</v>
       </c>
       <c r="R138" t="n">
-        <v>7099968</v>
+        <v>7100385</v>
       </c>
       <c r="S138" t="n">
         <v>5</v>
@@ -14987,32 +14987,32 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>125174041</v>
+        <v>125174069</v>
       </c>
       <c r="B139" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>696836</v>
+        <v>697262</v>
       </c>
       <c r="R139" t="n">
-        <v>7100429</v>
+        <v>7099968</v>
       </c>
       <c r="S139" t="n">
         <v>5</v>
@@ -15068,6 +15068,21 @@
       </c>
       <c r="AG139" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ139" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK139" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO139" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT139" t="inlineStr"/>
       <c r="AW139" t="inlineStr">
@@ -15084,32 +15099,32 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>125173976</v>
+        <v>125174106</v>
       </c>
       <c r="B140" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -15119,10 +15134,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>697239</v>
+        <v>697232</v>
       </c>
       <c r="R140" t="n">
-        <v>7100385</v>
+        <v>7100373</v>
       </c>
       <c r="S140" t="n">
         <v>5</v>
@@ -15165,21 +15180,6 @@
       </c>
       <c r="AG140" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ140" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK140" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO140" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT140" t="inlineStr"/>
       <c r="AW140" t="inlineStr">
@@ -15196,10 +15196,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>125174106</v>
+        <v>125173969</v>
       </c>
       <c r="B141" t="n">
-        <v>78980</v>
+        <v>58138</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -15207,34 +15207,43 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6425</v>
+        <v>103018</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ficedula hypoleuca</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr"/>
+          <t>(Pallas, 1764)</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P141" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>697232</v>
+        <v>696888</v>
       </c>
       <c r="R141" t="n">
-        <v>7100373</v>
+        <v>7100648</v>
       </c>
       <c r="S141" t="n">
         <v>5</v>
@@ -15293,10 +15302,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>125173969</v>
+        <v>125174041</v>
       </c>
       <c r="B142" t="n">
-        <v>58138</v>
+        <v>80083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -15304,43 +15313,34 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>103018</v>
+        <v>6458</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Ficedula hypoleuca</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Pallas, 1764)</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>696888</v>
+        <v>696836</v>
       </c>
       <c r="R142" t="n">
-        <v>7100648</v>
+        <v>7100429</v>
       </c>
       <c r="S142" t="n">
         <v>5</v>
@@ -15720,7 +15720,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>126313451</v>
+        <v>126313452</v>
       </c>
       <c r="B146" t="n">
         <v>80083</v>
@@ -15755,10 +15755,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>697002</v>
+        <v>696997</v>
       </c>
       <c r="R146" t="n">
-        <v>7099803</v>
+        <v>7099834</v>
       </c>
       <c r="S146" t="n">
         <v>5</v>
@@ -15812,14 +15812,9 @@
           <t>Salix caprea</t>
         </is>
       </c>
-      <c r="AL146" t="inlineStr">
-        <is>
-          <t>Rikligt på 2 sälgar bredvid varandra</t>
-        </is>
-      </c>
       <c r="AO146" t="inlineStr">
         <is>
-          <t>Salix caprea # Rikligt på 2 sälgar bredvid varandra</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr"/>
@@ -15837,7 +15832,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>126313452</v>
+        <v>126313451</v>
       </c>
       <c r="B147" t="n">
         <v>80083</v>
@@ -15872,10 +15867,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>696997</v>
+        <v>697002</v>
       </c>
       <c r="R147" t="n">
-        <v>7099834</v>
+        <v>7099803</v>
       </c>
       <c r="S147" t="n">
         <v>5</v>
@@ -15929,9 +15924,14 @@
           <t>Salix caprea</t>
         </is>
       </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>Rikligt på 2 sälgar bredvid varandra</t>
+        </is>
+      </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Salix caprea # Rikligt på 2 sälgar bredvid varandra</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr"/>
@@ -15949,10 +15949,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>125174070</v>
+        <v>125173949</v>
       </c>
       <c r="B148" t="n">
-        <v>80119</v>
+        <v>91210</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -15960,21 +15960,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6464</v>
+        <v>5447</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -15984,10 +15984,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>696910</v>
+        <v>697264</v>
       </c>
       <c r="R148" t="n">
-        <v>7100484</v>
+        <v>7100107</v>
       </c>
       <c r="S148" t="n">
         <v>5</v>
@@ -16046,45 +16046,53 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>125174103</v>
+        <v>125173965</v>
       </c>
       <c r="B149" t="n">
-        <v>78980</v>
+        <v>56849</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>696805</v>
+        <v>697153</v>
       </c>
       <c r="R149" t="n">
-        <v>7100605</v>
+        <v>7100005</v>
       </c>
       <c r="S149" t="n">
         <v>5</v>
@@ -16255,32 +16263,32 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>125173982</v>
+        <v>125174028</v>
       </c>
       <c r="B151" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -16290,10 +16298,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>696852</v>
+        <v>697338</v>
       </c>
       <c r="R151" t="n">
-        <v>7100421</v>
+        <v>7100024</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -16336,6 +16344,21 @@
       </c>
       <c r="AG151" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ151" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK151" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO151" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT151" t="inlineStr"/>
       <c r="AW151" t="inlineStr">
@@ -16352,7 +16375,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>125174028</v>
+        <v>125174049</v>
       </c>
       <c r="B152" t="n">
         <v>80083</v>
@@ -16387,10 +16410,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>697338</v>
+        <v>696783</v>
       </c>
       <c r="R152" t="n">
-        <v>7100024</v>
+        <v>7100499</v>
       </c>
       <c r="S152" t="n">
         <v>5</v>
@@ -16433,21 +16456,6 @@
       </c>
       <c r="AG152" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ152" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK152" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO152" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT152" t="inlineStr"/>
       <c r="AW152" t="inlineStr">
@@ -16464,32 +16472,32 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>125174049</v>
+        <v>125173982</v>
       </c>
       <c r="B153" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -16499,10 +16507,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>696783</v>
+        <v>696852</v>
       </c>
       <c r="R153" t="n">
-        <v>7100499</v>
+        <v>7100421</v>
       </c>
       <c r="S153" t="n">
         <v>5</v>
@@ -16561,32 +16569,32 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>125173949</v>
+        <v>125174103</v>
       </c>
       <c r="B154" t="n">
-        <v>91210</v>
+        <v>78980</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -16596,10 +16604,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>697264</v>
+        <v>696805</v>
       </c>
       <c r="R154" t="n">
-        <v>7100107</v>
+        <v>7100605</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
@@ -16658,10 +16666,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>125173965</v>
+        <v>125174070</v>
       </c>
       <c r="B155" t="n">
-        <v>56849</v>
+        <v>80119</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -16669,42 +16677,34 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>100138</v>
+        <v>6464</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>697153</v>
+        <v>696910</v>
       </c>
       <c r="R155" t="n">
-        <v>7100005</v>
+        <v>7100484</v>
       </c>
       <c r="S155" t="n">
         <v>5</v>
@@ -16763,10 +16763,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>125173991</v>
+        <v>125173952</v>
       </c>
       <c r="B156" t="n">
-        <v>91256</v>
+        <v>91210</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -16774,21 +16774,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1205</v>
+        <v>5447</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>697011</v>
+        <v>697434</v>
       </c>
       <c r="R156" t="n">
-        <v>7100500</v>
+        <v>7100167</v>
       </c>
       <c r="S156" t="n">
         <v>5</v>
@@ -16860,7 +16860,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>125174009</v>
+        <v>125174064</v>
       </c>
       <c r="B157" t="n">
         <v>80083</v>
@@ -16895,10 +16895,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>697421</v>
+        <v>697392</v>
       </c>
       <c r="R157" t="n">
-        <v>7100143</v>
+        <v>7100076</v>
       </c>
       <c r="S157" t="n">
         <v>5</v>
@@ -16941,21 +16941,6 @@
       </c>
       <c r="AG157" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ157" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK157" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO157" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT157" t="inlineStr"/>
       <c r="AW157" t="inlineStr">
@@ -16972,7 +16957,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>125174064</v>
+        <v>125174009</v>
       </c>
       <c r="B158" t="n">
         <v>80083</v>
@@ -17007,10 +16992,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>697392</v>
+        <v>697421</v>
       </c>
       <c r="R158" t="n">
-        <v>7100076</v>
+        <v>7100143</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -17053,6 +17038,21 @@
       </c>
       <c r="AG158" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ158" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK158" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO158" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT158" t="inlineStr"/>
       <c r="AW158" t="inlineStr">
@@ -17166,32 +17166,32 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>125174105</v>
+        <v>125173991</v>
       </c>
       <c r="B160" t="n">
-        <v>78980</v>
+        <v>91256</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -17201,10 +17201,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>696789</v>
+        <v>697011</v>
       </c>
       <c r="R160" t="n">
-        <v>7100648</v>
+        <v>7100500</v>
       </c>
       <c r="S160" t="n">
         <v>5</v>
@@ -17263,32 +17263,32 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>125173952</v>
+        <v>125174105</v>
       </c>
       <c r="B161" t="n">
-        <v>91210</v>
+        <v>78980</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -17298,10 +17298,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>697434</v>
+        <v>696789</v>
       </c>
       <c r="R161" t="n">
-        <v>7100167</v>
+        <v>7100648</v>
       </c>
       <c r="S161" t="n">
         <v>5</v>
@@ -17569,32 +17569,32 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>16944662</v>
+        <v>16944794</v>
       </c>
       <c r="B164" t="n">
-        <v>80083</v>
+        <v>98395</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -17604,10 +17604,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>696956</v>
+        <v>697323</v>
       </c>
       <c r="R164" t="n">
-        <v>7100421</v>
+        <v>7100086</v>
       </c>
       <c r="S164" t="n">
         <v>5</v>
@@ -17650,21 +17650,6 @@
       </c>
       <c r="AG164" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ164" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK164" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AO164" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT164" t="inlineStr"/>
       <c r="AW164" t="inlineStr">
@@ -17681,32 +17666,32 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>16944794</v>
+        <v>16944662</v>
       </c>
       <c r="B165" t="n">
-        <v>98395</v>
+        <v>80083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -17716,10 +17701,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>697323</v>
+        <v>696956</v>
       </c>
       <c r="R165" t="n">
-        <v>7100086</v>
+        <v>7100421</v>
       </c>
       <c r="S165" t="n">
         <v>5</v>
@@ -17762,6 +17747,21 @@
       </c>
       <c r="AG165" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ165" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK165" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO165" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT165" t="inlineStr"/>
       <c r="AW165" t="inlineStr">
@@ -17778,54 +17778,45 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>125174074</v>
+        <v>125174056</v>
       </c>
       <c r="B166" t="n">
-        <v>58027</v>
+        <v>80083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>103015</v>
+        <v>6458</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>696875</v>
+        <v>697118</v>
       </c>
       <c r="R166" t="n">
-        <v>7100596</v>
+        <v>7100446</v>
       </c>
       <c r="S166" t="n">
         <v>5</v>
@@ -17884,32 +17875,32 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>126313457</v>
+        <v>125173993</v>
       </c>
       <c r="B167" t="n">
-        <v>80083</v>
+        <v>91256</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -17919,10 +17910,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>697476</v>
+        <v>697233</v>
       </c>
       <c r="R167" t="n">
-        <v>7099831</v>
+        <v>7100375</v>
       </c>
       <c r="S167" t="n">
         <v>5</v>
@@ -17949,12 +17940,12 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -17965,38 +17956,23 @@
       </c>
       <c r="AG167" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ167" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK167" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO167" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT167" t="inlineStr"/>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>125174056</v>
+        <v>125174012</v>
       </c>
       <c r="B168" t="n">
         <v>80083</v>
@@ -18031,10 +18007,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>697118</v>
+        <v>696936</v>
       </c>
       <c r="R168" t="n">
-        <v>7100446</v>
+        <v>7100464</v>
       </c>
       <c r="S168" t="n">
         <v>5</v>
@@ -18077,6 +18053,21 @@
       </c>
       <c r="AG168" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ168" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK168" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO168" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT168" t="inlineStr"/>
       <c r="AW168" t="inlineStr">
@@ -18093,7 +18084,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>125174012</v>
+        <v>126313457</v>
       </c>
       <c r="B169" t="n">
         <v>80083</v>
@@ -18128,10 +18119,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>696936</v>
+        <v>697476</v>
       </c>
       <c r="R169" t="n">
-        <v>7100464</v>
+        <v>7099831</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
@@ -18158,12 +18149,12 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="AD169" t="b">
@@ -18177,38 +18168,38 @@
       </c>
       <c r="AJ169" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK169" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO169" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT169" t="inlineStr"/>
       <c r="AW169" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX169" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>125173993</v>
+        <v>125174074</v>
       </c>
       <c r="B170" t="n">
-        <v>91256</v>
+        <v>58027</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -18216,34 +18207,43 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1205</v>
+        <v>103015</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P170" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>697233</v>
+        <v>696875</v>
       </c>
       <c r="R170" t="n">
-        <v>7100375</v>
+        <v>7100596</v>
       </c>
       <c r="S170" t="n">
         <v>5</v>
@@ -18507,10 +18507,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>125174005</v>
+        <v>125174072</v>
       </c>
       <c r="B173" t="n">
-        <v>58087</v>
+        <v>91652</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -18518,43 +18518,29 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>103001</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Rödvingetrast</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>ruvande</t>
-        </is>
-      </c>
+          <t>(Pers.:Fr.) Quél.</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>697306</v>
+        <v>697100</v>
       </c>
       <c r="R173" t="n">
-        <v>7100090</v>
+        <v>7100428</v>
       </c>
       <c r="S173" t="n">
         <v>5</v>
@@ -18613,10 +18599,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>125174072</v>
+        <v>125174062</v>
       </c>
       <c r="B174" t="n">
-        <v>91652</v>
+        <v>80083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -18624,16 +18610,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>6040186</v>
+        <v>6458</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -18643,10 +18634,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>697100</v>
+        <v>697388</v>
       </c>
       <c r="R174" t="n">
-        <v>7100428</v>
+        <v>7100034</v>
       </c>
       <c r="S174" t="n">
         <v>5</v>
@@ -18705,10 +18696,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>125173959</v>
+        <v>125174098</v>
       </c>
       <c r="B175" t="n">
-        <v>91245</v>
+        <v>91263</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -18716,21 +18707,21 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
@@ -18740,10 +18731,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>697101</v>
+        <v>697338</v>
       </c>
       <c r="R175" t="n">
-        <v>7100431</v>
+        <v>7099927</v>
       </c>
       <c r="S175" t="n">
         <v>5</v>
@@ -18802,10 +18793,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>125174098</v>
+        <v>125173959</v>
       </c>
       <c r="B176" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -18813,21 +18804,21 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
@@ -18837,10 +18828,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>697338</v>
+        <v>697101</v>
       </c>
       <c r="R176" t="n">
-        <v>7099927</v>
+        <v>7100431</v>
       </c>
       <c r="S176" t="n">
         <v>5</v>
@@ -18899,7 +18890,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>125174062</v>
+        <v>125174037</v>
       </c>
       <c r="B177" t="n">
         <v>80083</v>
@@ -18934,10 +18925,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>697388</v>
+        <v>696829</v>
       </c>
       <c r="R177" t="n">
-        <v>7100034</v>
+        <v>7100396</v>
       </c>
       <c r="S177" t="n">
         <v>5</v>
@@ -18996,10 +18987,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>125174037</v>
+        <v>125174005</v>
       </c>
       <c r="B178" t="n">
-        <v>80083</v>
+        <v>58087</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -19007,34 +18998,43 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6458</v>
+        <v>103001</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr"/>
+          <t>Linnaeus, 1766</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>ruvande</t>
+        </is>
+      </c>
       <c r="P178" t="inlineStr">
         <is>
           <t>Orratjärnkullen, Ång</t>
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>696829</v>
+        <v>697306</v>
       </c>
       <c r="R178" t="n">
-        <v>7100396</v>
+        <v>7100090</v>
       </c>
       <c r="S178" t="n">
         <v>5</v>
